--- a/OUTPUT_DF/feature_df.xlsx
+++ b/OUTPUT_DF/feature_df.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE158"/>
+  <dimension ref="A1:AD158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,130 +456,125 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>jack</t>
+          <t>laura</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>laura</t>
+          <t>lisa</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>lisa</t>
+          <t>marc</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>marc</t>
+          <t>mary</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>mary</t>
+          <t>tom</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>tom</t>
+          <t>TARGET_VOL_SO</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>TARGET_VOL_SO</t>
+          <t>is_last_week</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>is_last_week</t>
+          <t>is_january</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>is_january</t>
+          <t>is_february</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>is_february</t>
+          <t>is_march</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>is_march</t>
+          <t>is_april</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>is_april</t>
+          <t>is_may</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>is_may</t>
+          <t>is_june</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>is_june</t>
+          <t>is_july</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>is_july</t>
+          <t>is_august</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>is_august</t>
+          <t>is_september</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>is_september</t>
+          <t>is_october</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>is_october</t>
+          <t>is_november</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>is_november</t>
+          <t>is_december</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>is_december</t>
+          <t>promotion</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>promotion</t>
+          <t>distribution</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>distribution</t>
+          <t>epros</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>epros</t>
+          <t>off_trade_visibility</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>off_trade_visibility</t>
+          <t>AVERAGE_PRICE</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>AVERAGE_PRICE</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>covid</t>
         </is>
@@ -604,25 +599,25 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>21157.5</v>
+      </c>
+      <c r="I2" t="n">
         <v>15401.39</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>21157.5</v>
-      </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11613.51</v>
       </c>
       <c r="K2" t="n">
-        <v>11613.51</v>
+        <v>541808.2</v>
       </c>
       <c r="L2" t="n">
-        <v>541808.2</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -643,10 +638,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -661,24 +656,21 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>-0.000755070638773578</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.000755070638773578</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.0101010101010101</v>
+        <v>7</v>
       </c>
       <c r="AB2" t="n">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AC2" t="n">
-        <v>35</v>
+        <v>19.10838302316964</v>
       </c>
       <c r="AD2" t="n">
-        <v>19.10838302316964</v>
-      </c>
-      <c r="AE2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -701,25 +693,25 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0.93</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2607.04</v>
       </c>
       <c r="K3" t="n">
-        <v>2607.04</v>
+        <v>585175.3</v>
       </c>
       <c r="L3" t="n">
-        <v>585175.3</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -740,10 +732,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -761,21 +753,18 @@
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.0101010101010101</v>
+        <v>21</v>
       </c>
       <c r="AB3" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="AC3" t="n">
-        <v>33</v>
+        <v>19.10838302316964</v>
       </c>
       <c r="AD3" t="n">
-        <v>19.10838302316964</v>
-      </c>
-      <c r="AE3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -798,25 +787,25 @@
         <v>7500</v>
       </c>
       <c r="F4" t="n">
+        <v>4140</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>308955.07</v>
+      </c>
+      <c r="I4" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="G4" t="n">
-        <v>4140</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>308955.07</v>
-      </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>2516.66</v>
       </c>
       <c r="K4" t="n">
-        <v>2516.66</v>
+        <v>531095.3</v>
       </c>
       <c r="L4" t="n">
-        <v>531095.3</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -837,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -855,24 +844,21 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>-0.0023005887912552</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0.0023005887912552</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.0101010101010101</v>
+        <v>10</v>
       </c>
       <c r="AB4" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AC4" t="n">
-        <v>30</v>
+        <v>19.10838302316964</v>
       </c>
       <c r="AD4" t="n">
-        <v>19.10838302316964</v>
-      </c>
-      <c r="AE4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -895,25 +881,25 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>9579.9</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0.01</v>
       </c>
-      <c r="G5" t="n">
-        <v>9579.9</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>6478.36</v>
       </c>
       <c r="K5" t="n">
-        <v>6478.36</v>
+        <v>607487.8</v>
       </c>
       <c r="L5" t="n">
-        <v>607487.8</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -934,10 +920,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -952,24 +938,21 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>0.003101670918833577</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.003101670918833577</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.0101010101010101</v>
+        <v>44</v>
       </c>
       <c r="AB5" t="n">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="AC5" t="n">
-        <v>31</v>
+        <v>19.10838302316964</v>
       </c>
       <c r="AD5" t="n">
-        <v>19.10838302316964</v>
-      </c>
-      <c r="AE5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -992,25 +975,25 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>9594.68</v>
       </c>
       <c r="G6" t="n">
-        <v>9594.68</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>21157.5</v>
       </c>
       <c r="I6" t="n">
-        <v>21157.5</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>4975</v>
       </c>
       <c r="K6" t="n">
-        <v>4974.999999996</v>
+        <v>669757.8</v>
       </c>
       <c r="L6" t="n">
-        <v>669757.8</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -1034,10 +1017,10 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1049,24 +1032,21 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>0.004697797155616752</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.004697797155616752</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.0101010101010101</v>
+        <v>70</v>
       </c>
       <c r="AB6" t="n">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="AC6" t="n">
-        <v>32</v>
+        <v>19.10838302316964</v>
       </c>
       <c r="AD6" t="n">
-        <v>19.10838302316964</v>
-      </c>
-      <c r="AE6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1089,25 +1069,25 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>4692.74</v>
       </c>
       <c r="G7" t="n">
-        <v>4692.74</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>285106.11</v>
       </c>
       <c r="I7" t="n">
-        <v>285106.11</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>7535.1</v>
       </c>
       <c r="K7" t="n">
-        <v>7535.1</v>
+        <v>616891.8</v>
       </c>
       <c r="L7" t="n">
-        <v>616891.8</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -1131,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1146,24 +1126,21 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>0.002378957185222189</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.002378957185222189</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.0101010101010101</v>
+        <v>36</v>
       </c>
       <c r="AB7" t="n">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="AC7" t="n">
-        <v>47</v>
+        <v>19.10838302316964</v>
       </c>
       <c r="AD7" t="n">
-        <v>19.10838302316964</v>
-      </c>
-      <c r="AE7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1186,25 +1163,25 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>6577.23</v>
       </c>
       <c r="G8" t="n">
-        <v>6577.23</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>46227.38</v>
       </c>
       <c r="I8" t="n">
-        <v>46227.38</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>7706.58</v>
       </c>
       <c r="K8" t="n">
-        <v>7706.580000004</v>
+        <v>604947.2</v>
       </c>
       <c r="L8" t="n">
-        <v>604947.2</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -1228,10 +1205,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1243,24 +1220,21 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>0.002117303653251161</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.002117303653251161</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.0101010101010101</v>
+        <v>33</v>
       </c>
       <c r="AB8" t="n">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="AC8" t="n">
-        <v>48</v>
+        <v>19.10838302316964</v>
       </c>
       <c r="AD8" t="n">
-        <v>19.10838302316964</v>
-      </c>
-      <c r="AE8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1295,13 +1269,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>4529.56</v>
       </c>
       <c r="K9" t="n">
-        <v>4529.56</v>
+        <v>528930.1</v>
       </c>
       <c r="L9" t="n">
-        <v>528930.1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -1325,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1340,24 +1314,21 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>0.002101627672492546</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.002101627672492546</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.0101010101010101</v>
+        <v>31</v>
       </c>
       <c r="AB9" t="n">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="AC9" t="n">
-        <v>45</v>
+        <v>19.10838302316964</v>
       </c>
       <c r="AD9" t="n">
-        <v>19.10838302316964</v>
-      </c>
-      <c r="AE9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1380,25 +1351,25 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0.01</v>
       </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>9135.459999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>9135.459999999999</v>
+        <v>491535.3</v>
       </c>
       <c r="L10" t="n">
-        <v>491535.3</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1422,10 +1393,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1437,24 +1408,21 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>0.006172880431713447</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.006172880431713447</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.0101010101010101</v>
+        <v>29</v>
       </c>
       <c r="AB10" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="AC10" t="n">
-        <v>33</v>
+        <v>19.10838302316964</v>
       </c>
       <c r="AD10" t="n">
-        <v>19.10838302316964</v>
-      </c>
-      <c r="AE10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1477,25 +1445,25 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0.01</v>
       </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>8504.459999999999</v>
       </c>
       <c r="K11" t="n">
-        <v>8504.45999996</v>
+        <v>464977.8</v>
       </c>
       <c r="L11" t="n">
-        <v>464977.8</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1522,10 +1490,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1534,24 +1502,21 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>0.004154394517860536</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.004154394517860536</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.0101010101010101</v>
+        <v>28</v>
       </c>
       <c r="AB11" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="AC11" t="n">
-        <v>31</v>
+        <v>19.10838302316964</v>
       </c>
       <c r="AD11" t="n">
-        <v>19.10838302316964</v>
-      </c>
-      <c r="AE11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1583,16 +1548,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7901.19</v>
       </c>
       <c r="J12" t="n">
-        <v>7901.19</v>
+        <v>4990.14</v>
       </c>
       <c r="K12" t="n">
-        <v>4990.14</v>
+        <v>455497.1</v>
       </c>
       <c r="L12" t="n">
-        <v>455497.1</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1619,10 +1584,10 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1631,24 +1596,21 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>0.002481396826364468</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.002481396826364468</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.0101010101010101</v>
+        <v>14</v>
       </c>
       <c r="AB12" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="AC12" t="n">
-        <v>30</v>
+        <v>19.10838302316964</v>
       </c>
       <c r="AD12" t="n">
-        <v>19.10838302316964</v>
-      </c>
-      <c r="AE12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1680,16 +1642,16 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>5223.64</v>
       </c>
       <c r="J13" t="n">
-        <v>5223.64</v>
+        <v>6820.6</v>
       </c>
       <c r="K13" t="n">
-        <v>6820.6</v>
+        <v>434407.8</v>
       </c>
       <c r="L13" t="n">
-        <v>434407.8</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1716,10 +1678,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1728,24 +1690,21 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>0.002464672994755865</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.002464672994755865</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.0101010101010101</v>
+        <v>14</v>
       </c>
       <c r="AB13" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="AC13" t="n">
-        <v>28</v>
+        <v>19.10838302316964</v>
       </c>
       <c r="AD13" t="n">
-        <v>19.10838302316964</v>
-      </c>
-      <c r="AE13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1777,16 +1736,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>11877.36</v>
       </c>
       <c r="J14" t="n">
-        <v>11877.36</v>
+        <v>8077</v>
       </c>
       <c r="K14" t="n">
-        <v>8077</v>
+        <v>627647.6</v>
       </c>
       <c r="L14" t="n">
-        <v>627647.6</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1813,10 +1772,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1825,24 +1784,21 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>0.03543366013260521</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.03543366013260521</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.0101010101010101</v>
+        <v>39</v>
       </c>
       <c r="AB14" t="n">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="AC14" t="n">
-        <v>25</v>
+        <v>19.10838302316964</v>
       </c>
       <c r="AD14" t="n">
-        <v>19.10838302316964</v>
-      </c>
-      <c r="AE14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1877,13 +1833,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>2546.74</v>
       </c>
       <c r="K15" t="n">
-        <v>2546.74</v>
+        <v>607339.1</v>
       </c>
       <c r="L15" t="n">
-        <v>607339.1</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1913,33 +1869,30 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>0.04150349288691185</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.04150349288691185</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.0101010101010101</v>
+        <v>30</v>
       </c>
       <c r="AB15" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AC15" t="n">
-        <v>25</v>
+        <v>19.10838302316964</v>
       </c>
       <c r="AD15" t="n">
-        <v>19.10838302316964</v>
-      </c>
-      <c r="AE15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1974,13 +1927,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>3905.42</v>
       </c>
       <c r="K16" t="n">
-        <v>3905.42</v>
+        <v>488102.4</v>
       </c>
       <c r="L16" t="n">
-        <v>488102.4</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -2010,33 +1963,30 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>0.03256393064014376</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.03256393064014376</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.0101010101010101</v>
+        <v>29</v>
       </c>
       <c r="AB16" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AC16" t="n">
-        <v>25</v>
+        <v>19.10838302316964</v>
       </c>
       <c r="AD16" t="n">
-        <v>19.10838302316964</v>
-      </c>
-      <c r="AE16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2071,13 +2021,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>4705.74</v>
       </c>
       <c r="K17" t="n">
-        <v>4705.74</v>
+        <v>474471.5</v>
       </c>
       <c r="L17" t="n">
-        <v>474471.5</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -2107,33 +2057,30 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>0.01397933308998778</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.01397933308998778</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.0101010101010101</v>
+        <v>45</v>
       </c>
       <c r="AB17" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="AC17" t="n">
-        <v>29</v>
+        <v>19.10838302316964</v>
       </c>
       <c r="AD17" t="n">
-        <v>19.10838302316964</v>
-      </c>
-      <c r="AE17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2168,13 +2115,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>833.13</v>
       </c>
       <c r="K18" t="n">
-        <v>833.13</v>
+        <v>477612.2</v>
       </c>
       <c r="L18" t="n">
-        <v>477612.2</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -2204,33 +2151,30 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>0.01386305176373523</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.01386305176373523</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.0101010101010101</v>
+        <v>35</v>
       </c>
       <c r="AB18" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="AC18" t="n">
-        <v>27</v>
+        <v>19.10838302316964</v>
       </c>
       <c r="AD18" t="n">
-        <v>19.10838302316964</v>
-      </c>
-      <c r="AE18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2265,13 +2209,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>274.22</v>
       </c>
       <c r="K19" t="n">
-        <v>274.22</v>
+        <v>440799.6</v>
       </c>
       <c r="L19" t="n">
-        <v>440799.6</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -2301,33 +2245,30 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>0.003110094580476946</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.003110094580476946</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.0101010101010101</v>
+        <v>17</v>
       </c>
       <c r="AB19" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="AC19" t="n">
-        <v>32</v>
+        <v>19.10838302316964</v>
       </c>
       <c r="AD19" t="n">
-        <v>19.10838302316964</v>
-      </c>
-      <c r="AE19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2350,10 +2291,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="G20" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2362,13 +2303,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>2819.17</v>
       </c>
       <c r="K20" t="n">
-        <v>2819.17</v>
+        <v>458695.3</v>
       </c>
       <c r="L20" t="n">
-        <v>458695.3</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -2401,30 +2342,27 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>0.02272422121994667</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.02272422121994667</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.0101010101010101</v>
+        <v>21</v>
       </c>
       <c r="AB20" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="AC20" t="n">
-        <v>31</v>
+        <v>19.10838302316964</v>
       </c>
       <c r="AD20" t="n">
-        <v>19.10838302316964</v>
-      </c>
-      <c r="AE20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2447,10 +2385,10 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>2199.99</v>
       </c>
       <c r="G21" t="n">
-        <v>2199.99</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2459,13 +2397,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>4570.1</v>
       </c>
       <c r="K21" t="n">
-        <v>4570.1</v>
+        <v>374875.8</v>
       </c>
       <c r="L21" t="n">
-        <v>374875.8</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -2498,30 +2436,27 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>0.00352083912584532</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.00352083912584532</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.0101010101010101</v>
+        <v>10</v>
       </c>
       <c r="AB21" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="AC21" t="n">
-        <v>28</v>
+        <v>19.10838302316964</v>
       </c>
       <c r="AD21" t="n">
-        <v>19.10838302316964</v>
-      </c>
-      <c r="AE21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2544,10 +2479,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>6599.06</v>
       </c>
       <c r="G22" t="n">
-        <v>6599.06</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2556,13 +2491,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>6610.19</v>
       </c>
       <c r="K22" t="n">
-        <v>6610.190000001</v>
+        <v>484891.1</v>
       </c>
       <c r="L22" t="n">
-        <v>484891.1</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -2595,30 +2530,27 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>0.01215320447149034</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.01215320447149034</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.0101010101010101</v>
+        <v>24</v>
       </c>
       <c r="AB22" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="AC22" t="n">
-        <v>33</v>
+        <v>19.10838302316964</v>
       </c>
       <c r="AD22" t="n">
-        <v>19.10838302316964</v>
-      </c>
-      <c r="AE22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2641,10 +2573,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>2986.04</v>
       </c>
       <c r="G23" t="n">
-        <v>2986.04</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2653,13 +2585,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>4295.92</v>
       </c>
       <c r="K23" t="n">
-        <v>4295.92</v>
+        <v>418276.2</v>
       </c>
       <c r="L23" t="n">
-        <v>418276.2</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -2692,30 +2624,27 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>0.007937631396755214</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.007937631396755214</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.0101010101010101</v>
+        <v>22</v>
       </c>
       <c r="AB23" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="AC23" t="n">
-        <v>31</v>
+        <v>19.10838302316964</v>
       </c>
       <c r="AD23" t="n">
-        <v>19.10838302316964</v>
-      </c>
-      <c r="AE23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2750,13 +2679,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>2204.08</v>
       </c>
       <c r="K24" t="n">
-        <v>2204.08</v>
+        <v>537613.4</v>
       </c>
       <c r="L24" t="n">
-        <v>537613.4</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -2792,27 +2721,24 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y24" t="n">
-        <v>1</v>
+        <v>0.01698608418270394</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.01698608418270394</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.0101010101010101</v>
+        <v>51</v>
       </c>
       <c r="AB24" t="n">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="AC24" t="n">
-        <v>36</v>
+        <v>19.10838302316964</v>
       </c>
       <c r="AD24" t="n">
-        <v>19.10838302316964</v>
-      </c>
-      <c r="AE24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2847,13 +2773,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>2968.39</v>
       </c>
       <c r="K25" t="n">
-        <v>2968.39</v>
+        <v>491896.9</v>
       </c>
       <c r="L25" t="n">
-        <v>491896.9</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -2889,27 +2815,24 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y25" t="n">
-        <v>1</v>
+        <v>0.01308072829589028</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.01308072829589028</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.0101010101010101</v>
+        <v>62</v>
       </c>
       <c r="AB25" t="n">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="AC25" t="n">
-        <v>24</v>
+        <v>19.10838302316964</v>
       </c>
       <c r="AD25" t="n">
-        <v>19.10838302316964</v>
-      </c>
-      <c r="AE25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2944,13 +2867,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>3425.37</v>
       </c>
       <c r="K26" t="n">
-        <v>3425.37</v>
+        <v>642394.7</v>
       </c>
       <c r="L26" t="n">
-        <v>642394.7</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -2986,27 +2909,24 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y26" t="n">
-        <v>1</v>
+        <v>0.01510769907042788</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.01510769907042788</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.0101010101010101</v>
+        <v>67</v>
       </c>
       <c r="AB26" t="n">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="AC26" t="n">
-        <v>39</v>
+        <v>19.10838302316964</v>
       </c>
       <c r="AD26" t="n">
-        <v>19.10838302316964</v>
-      </c>
-      <c r="AE26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3041,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>1858.95</v>
       </c>
       <c r="K27" t="n">
-        <v>1858.95</v>
+        <v>515924.6</v>
       </c>
       <c r="L27" t="n">
-        <v>515924.6</v>
+        <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -3083,27 +3003,24 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y27" t="n">
-        <v>1</v>
+        <v>0.01222410353511274</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.01222410353511274</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.0101010101010101</v>
+        <v>50</v>
       </c>
       <c r="AB27" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="AC27" t="n">
-        <v>37</v>
+        <v>19.10838302316964</v>
       </c>
       <c r="AD27" t="n">
-        <v>19.10838302316964</v>
-      </c>
-      <c r="AE27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3126,10 +3043,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G28" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -3138,19 +3055,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>4247.29</v>
       </c>
       <c r="K28" t="n">
-        <v>4247.29</v>
+        <v>407635.5</v>
       </c>
       <c r="L28" t="n">
-        <v>407635.5</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -3183,24 +3100,21 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>0.003414730187523015</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.003414730187523015</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.0101010101010101</v>
+        <v>15</v>
       </c>
       <c r="AB28" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AC28" t="n">
-        <v>34</v>
+        <v>20.56555353171865</v>
       </c>
       <c r="AD28" t="n">
-        <v>20.56555353171865</v>
-      </c>
-      <c r="AE28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3235,19 +3149,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="K29" t="n">
-        <v>500</v>
+        <v>588990.6</v>
       </c>
       <c r="L29" t="n">
-        <v>588990.6</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -3280,24 +3194,21 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>0.03726962823471006</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.03726962823471006</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.0101010101010101</v>
+        <v>20</v>
       </c>
       <c r="AB29" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AC29" t="n">
-        <v>30</v>
+        <v>20.56555353171865</v>
       </c>
       <c r="AD29" t="n">
-        <v>20.56555353171865</v>
-      </c>
-      <c r="AE29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3332,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="K30" t="n">
-        <v>500</v>
+        <v>362366.3</v>
       </c>
       <c r="L30" t="n">
-        <v>362366.3</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -3377,24 +3288,21 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>0.01253512658108402</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.01253512658108402</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.0101010101010101</v>
+        <v>11</v>
       </c>
       <c r="AB30" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AC30" t="n">
-        <v>23</v>
+        <v>20.56555353171865</v>
       </c>
       <c r="AD30" t="n">
-        <v>20.56555353171865</v>
-      </c>
-      <c r="AE30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3429,19 +3337,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="K31" t="n">
-        <v>250</v>
+        <v>367750.2</v>
       </c>
       <c r="L31" t="n">
-        <v>367750.2</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -3474,24 +3382,21 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>0.003637748489022921</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.003637748489022921</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.0101010101010101</v>
+        <v>4</v>
       </c>
       <c r="AB31" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="AC31" t="n">
-        <v>24</v>
+        <v>20.56555353171865</v>
       </c>
       <c r="AD31" t="n">
-        <v>20.56555353171865</v>
-      </c>
-      <c r="AE31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3526,19 +3431,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="K32" t="n">
-        <v>500</v>
+        <v>450670.5</v>
       </c>
       <c r="L32" t="n">
-        <v>450670.5</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -3571,24 +3476,21 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>-0.01485425883056215</v>
       </c>
       <c r="Z32" t="n">
-        <v>-0.01485425883056215</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.0101010101010101</v>
+        <v>24</v>
       </c>
       <c r="AB32" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AC32" t="n">
-        <v>25</v>
+        <v>20.56555353171865</v>
       </c>
       <c r="AD32" t="n">
-        <v>20.56555353171865</v>
-      </c>
-      <c r="AE32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3626,19 +3528,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>385826.1</v>
       </c>
       <c r="L33" t="n">
-        <v>385826.1</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -3668,24 +3570,21 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>0.02288468778394557</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.02288468778394557</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.0101010101010101</v>
+        <v>45</v>
       </c>
       <c r="AB33" t="n">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="AC33" t="n">
-        <v>23</v>
+        <v>20.56555353171865</v>
       </c>
       <c r="AD33" t="n">
-        <v>20.56555353171865</v>
-      </c>
-      <c r="AE33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3720,22 +3619,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>373.98</v>
       </c>
       <c r="K34" t="n">
-        <v>373.98</v>
+        <v>347158</v>
       </c>
       <c r="L34" t="n">
-        <v>347158</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -3765,24 +3664,21 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>0.01148581168291831</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.01148581168291831</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.0101010101010101</v>
+        <v>12</v>
       </c>
       <c r="AB34" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="AC34" t="n">
-        <v>27</v>
+        <v>20.56555353171865</v>
       </c>
       <c r="AD34" t="n">
-        <v>20.56555353171865</v>
-      </c>
-      <c r="AE34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3817,22 +3713,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>1126.02</v>
       </c>
       <c r="K35" t="n">
-        <v>1126.02</v>
+        <v>352196.5</v>
       </c>
       <c r="L35" t="n">
-        <v>352196.5</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -3862,24 +3758,21 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>0.01033465832326398</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.01033465832326398</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.0101010101010101</v>
+        <v>8</v>
       </c>
       <c r="AB35" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="AC35" t="n">
-        <v>31</v>
+        <v>20.56555353171865</v>
       </c>
       <c r="AD35" t="n">
-        <v>20.56555353171865</v>
-      </c>
-      <c r="AE35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3914,22 +3807,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="K36" t="n">
-        <v>500</v>
+        <v>369463.2</v>
       </c>
       <c r="L36" t="n">
-        <v>369463.2</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -3959,24 +3852,21 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>0.01041982759822606</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.01041982759822606</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.0101010101010101</v>
+        <v>0</v>
       </c>
       <c r="AB36" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AC36" t="n">
-        <v>28</v>
+        <v>20.56555353171865</v>
       </c>
       <c r="AD36" t="n">
-        <v>20.56555353171865</v>
-      </c>
-      <c r="AE36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4014,10 +3904,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>370152.5</v>
       </c>
       <c r="L37" t="n">
-        <v>370152.5</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -4026,10 +3916,10 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -4056,24 +3946,21 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>0.01491878149848453</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.01491878149848453</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.0101010101010101</v>
+        <v>8</v>
       </c>
       <c r="AB37" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="AC37" t="n">
-        <v>23</v>
+        <v>20.56555353171865</v>
       </c>
       <c r="AD37" t="n">
-        <v>20.56555353171865</v>
-      </c>
-      <c r="AE37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4108,13 +3995,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>2663.1</v>
       </c>
       <c r="K38" t="n">
-        <v>2663.100000015</v>
+        <v>358816.1</v>
       </c>
       <c r="L38" t="n">
-        <v>358816.1</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -4123,10 +4010,10 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -4153,24 +4040,21 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>0.01043451825257207</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.01043451825257207</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.0101010101010101</v>
+        <v>13</v>
       </c>
       <c r="AB38" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="AC38" t="n">
-        <v>22</v>
+        <v>20.56555353171865</v>
       </c>
       <c r="AD38" t="n">
-        <v>20.56555353171865</v>
-      </c>
-      <c r="AE38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4205,13 +4089,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>1836.9</v>
       </c>
       <c r="K39" t="n">
-        <v>1836.900000067</v>
+        <v>356738.7</v>
       </c>
       <c r="L39" t="n">
-        <v>356738.7</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -4220,10 +4104,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -4250,24 +4134,21 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>0.007023504440674107</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.007023504440674107</v>
+        <v>0</v>
       </c>
       <c r="AA39" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AB39" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AC39" t="n">
-        <v>15</v>
+        <v>20.56555353171865</v>
       </c>
       <c r="AD39" t="n">
-        <v>20.56555353171865</v>
-      </c>
-      <c r="AE39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4302,13 +4183,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="K40" t="n">
-        <v>1500.000000004</v>
+        <v>382354.9</v>
       </c>
       <c r="L40" t="n">
-        <v>382354.9</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -4317,10 +4198,10 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -4347,24 +4228,21 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>0.007820833146087103</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.007820833146087103</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.0101010101010101</v>
+        <v>22</v>
       </c>
       <c r="AB40" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AC40" t="n">
-        <v>18</v>
+        <v>20.56555353171865</v>
       </c>
       <c r="AD40" t="n">
-        <v>20.56555353171865</v>
-      </c>
-      <c r="AE40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4399,13 +4277,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="K41" t="n">
-        <v>500</v>
+        <v>400520.7</v>
       </c>
       <c r="L41" t="n">
-        <v>400520.7</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -4417,10 +4295,10 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -4444,24 +4322,21 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>0.008690585191936122</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.008690585191936122</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA41" t="n">
-        <v>0.0101010101010101</v>
+        <v>0</v>
       </c>
       <c r="AB41" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AC41" t="n">
-        <v>22</v>
+        <v>20.56555353171865</v>
       </c>
       <c r="AD41" t="n">
-        <v>20.56555353171865</v>
-      </c>
-      <c r="AE41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4496,13 +4371,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>1558.92</v>
       </c>
       <c r="K42" t="n">
-        <v>1558.92</v>
+        <v>401738.6</v>
       </c>
       <c r="L42" t="n">
-        <v>401738.6</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -4514,10 +4389,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -4541,24 +4416,21 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>0.01055448488542959</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.01055448488542959</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.0101010101010101</v>
+        <v>23</v>
       </c>
       <c r="AB42" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC42" t="n">
-        <v>21</v>
+        <v>20.56555353171865</v>
       </c>
       <c r="AD42" t="n">
-        <v>20.56555353171865</v>
-      </c>
-      <c r="AE42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4593,13 +4465,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>1441.08</v>
       </c>
       <c r="K43" t="n">
-        <v>1441.08</v>
+        <v>487849</v>
       </c>
       <c r="L43" t="n">
-        <v>487849</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -4611,10 +4483,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -4638,24 +4510,21 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>0.01206092087226486</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.01206092087226486</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA43" t="n">
-        <v>0.0101010101010101</v>
+        <v>55</v>
       </c>
       <c r="AB43" t="n">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="AC43" t="n">
-        <v>22</v>
+        <v>20.56555353171865</v>
       </c>
       <c r="AD43" t="n">
-        <v>20.56555353171865</v>
-      </c>
-      <c r="AE43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4693,10 +4562,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>389080.1</v>
       </c>
       <c r="L44" t="n">
-        <v>389080.1</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -4708,10 +4577,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4735,24 +4604,21 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>0.009691637397433317</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.009691637397433317</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA44" t="n">
-        <v>0.0101010101010101</v>
+        <v>1</v>
       </c>
       <c r="AB44" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="AC44" t="n">
-        <v>24</v>
+        <v>20.56555353171865</v>
       </c>
       <c r="AD44" t="n">
-        <v>20.56555353171865</v>
-      </c>
-      <c r="AE44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4775,10 +4641,10 @@
         <v>52137</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>2580.645161</v>
       </c>
       <c r="G45" t="n">
-        <v>2580.64516129</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4787,13 +4653,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>6290.322581</v>
       </c>
       <c r="K45" t="n">
-        <v>6290.322580645</v>
+        <v>443718.3</v>
       </c>
       <c r="L45" t="n">
-        <v>443718.3</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -4808,10 +4674,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4832,24 +4698,21 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>0.01089774698983685</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.01089774698983685</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA45" t="n">
-        <v>0.0101010101010101</v>
+        <v>15</v>
       </c>
       <c r="AB45" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AC45" t="n">
-        <v>26</v>
+        <v>20.56555353171865</v>
       </c>
       <c r="AD45" t="n">
-        <v>20.56555353171865</v>
-      </c>
-      <c r="AE45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4872,10 +4735,10 @@
         <v>44337</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>3612.903226</v>
       </c>
       <c r="G46" t="n">
-        <v>3612.903225806</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4884,13 +4747,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>8806.451612999999</v>
       </c>
       <c r="K46" t="n">
-        <v>8806.451612903</v>
+        <v>452965.8</v>
       </c>
       <c r="L46" t="n">
-        <v>452965.8</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -4905,10 +4768,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4929,24 +4792,21 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>0.009684005781253682</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.009684005781253682</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.0101010101010101</v>
+        <v>16</v>
       </c>
       <c r="AB46" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="AC46" t="n">
-        <v>26</v>
+        <v>20.56555353171865</v>
       </c>
       <c r="AD46" t="n">
-        <v>20.56555353171865</v>
-      </c>
-      <c r="AE46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4969,10 +4829,10 @@
         <v>7600</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>29987.90323</v>
       </c>
       <c r="G47" t="n">
-        <v>29987.903225806</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4981,13 +4841,13 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>8806.451612999999</v>
       </c>
       <c r="K47" t="n">
-        <v>8806.451612903</v>
+        <v>388399.3</v>
       </c>
       <c r="L47" t="n">
-        <v>388399.3</v>
+        <v>0</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
@@ -5002,10 +4862,10 @@
         <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S47" t="n">
         <v>0</v>
@@ -5026,24 +4886,21 @@
         <v>0</v>
       </c>
       <c r="Y47" t="n">
-        <v>0</v>
+        <v>0.004505032532613161</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.004505032532613161</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA47" t="n">
-        <v>0.0101010101010101</v>
+        <v>2</v>
       </c>
       <c r="AB47" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="AC47" t="n">
-        <v>22</v>
+        <v>20.56555353171865</v>
       </c>
       <c r="AD47" t="n">
-        <v>20.56555353171865</v>
-      </c>
-      <c r="AE47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5066,10 +4923,10 @@
         <v>15058</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>40537.90323</v>
       </c>
       <c r="G48" t="n">
-        <v>40537.903225806</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -5078,13 +4935,13 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>8806.451612999999</v>
       </c>
       <c r="K48" t="n">
-        <v>8806.451612903</v>
+        <v>425563.8</v>
       </c>
       <c r="L48" t="n">
-        <v>425563.8</v>
+        <v>0</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
@@ -5099,10 +4956,10 @@
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S48" t="n">
         <v>0</v>
@@ -5123,24 +4980,21 @@
         <v>0</v>
       </c>
       <c r="Y48" t="n">
-        <v>0</v>
+        <v>0.009789435764383091</v>
       </c>
       <c r="Z48" t="n">
-        <v>0.009789435764383091</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA48" t="n">
-        <v>0.0101010101010101</v>
+        <v>14</v>
       </c>
       <c r="AB48" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AC48" t="n">
-        <v>22</v>
+        <v>20.56555353171865</v>
       </c>
       <c r="AD48" t="n">
-        <v>20.56555353171865</v>
-      </c>
-      <c r="AE48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5163,25 +5017,25 @@
         <v>25558</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>25147.31183</v>
       </c>
       <c r="G49" t="n">
-        <v>25147.311827957</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>568583.8100000001</v>
       </c>
       <c r="I49" t="n">
-        <v>568583.8100000001</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>8956.989247</v>
       </c>
       <c r="K49" t="n">
-        <v>8956.989247312</v>
+        <v>511787.6</v>
       </c>
       <c r="L49" t="n">
-        <v>511787.6</v>
+        <v>0</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
@@ -5196,10 +5050,10 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S49" t="n">
         <v>0</v>
@@ -5220,24 +5074,21 @@
         <v>0</v>
       </c>
       <c r="Y49" t="n">
-        <v>0</v>
+        <v>0.007896089336321582</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.007896089336321582</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA49" t="n">
-        <v>0.0101010101010101</v>
+        <v>19</v>
       </c>
       <c r="AB49" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AC49" t="n">
-        <v>25</v>
+        <v>20.56555353171865</v>
       </c>
       <c r="AD49" t="n">
-        <v>20.56555353171865</v>
-      </c>
-      <c r="AE49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5260,10 +5111,10 @@
         <v>37700</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>5133.333333</v>
       </c>
       <c r="G50" t="n">
-        <v>5133.333333333</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -5272,13 +5123,13 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
+        <v>9333.333333</v>
       </c>
       <c r="K50" t="n">
-        <v>9333.333333332999</v>
+        <v>701654.9</v>
       </c>
       <c r="L50" t="n">
-        <v>701654.9</v>
+        <v>0</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
@@ -5296,10 +5147,10 @@
         <v>0</v>
       </c>
       <c r="R50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T50" t="n">
         <v>0</v>
@@ -5317,24 +5168,21 @@
         <v>0</v>
       </c>
       <c r="Y50" t="n">
-        <v>0</v>
+        <v>0.04463257588880598</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.04463257588880598</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA50" t="n">
-        <v>0.0101010101010101</v>
+        <v>64</v>
       </c>
       <c r="AB50" t="n">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="AC50" t="n">
-        <v>22</v>
+        <v>20.56555353171865</v>
       </c>
       <c r="AD50" t="n">
-        <v>20.56555353171865</v>
-      </c>
-      <c r="AE50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5357,10 +5205,10 @@
         <v>21908.66</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>5133.333333</v>
       </c>
       <c r="G51" t="n">
-        <v>5133.333333333</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -5369,13 +5217,13 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>9333.333333</v>
       </c>
       <c r="K51" t="n">
-        <v>9333.333333332999</v>
+        <v>458751.2</v>
       </c>
       <c r="L51" t="n">
-        <v>458751.2</v>
+        <v>0</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
@@ -5393,10 +5241,10 @@
         <v>0</v>
       </c>
       <c r="R51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T51" t="n">
         <v>0</v>
@@ -5414,24 +5262,21 @@
         <v>0</v>
       </c>
       <c r="Y51" t="n">
-        <v>0</v>
+        <v>0.007825310557779599</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.007825310557779599</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA51" t="n">
-        <v>0.0101010101010101</v>
+        <v>38</v>
       </c>
       <c r="AB51" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="AC51" t="n">
-        <v>27</v>
+        <v>20.56555353171865</v>
       </c>
       <c r="AD51" t="n">
-        <v>20.56555353171865</v>
-      </c>
-      <c r="AE51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5454,25 +5299,25 @@
         <v>12500</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>5133.333333</v>
       </c>
       <c r="G52" t="n">
-        <v>5133.333333333</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>314992.64</v>
       </c>
       <c r="I52" t="n">
-        <v>314992.64</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
+        <v>9333.333333</v>
       </c>
       <c r="K52" t="n">
-        <v>9333.333333332999</v>
+        <v>445166.7</v>
       </c>
       <c r="L52" t="n">
-        <v>445166.7</v>
+        <v>0</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
@@ -5490,10 +5335,10 @@
         <v>0</v>
       </c>
       <c r="R52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T52" t="n">
         <v>0</v>
@@ -5511,24 +5356,21 @@
         <v>0</v>
       </c>
       <c r="Y52" t="n">
-        <v>0</v>
+        <v>0.005830171586509581</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.005830171586509581</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA52" t="n">
-        <v>0.0101010101010101</v>
+        <v>22</v>
       </c>
       <c r="AB52" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="AC52" t="n">
-        <v>33</v>
+        <v>20.56555353171865</v>
       </c>
       <c r="AD52" t="n">
-        <v>20.56555353171865</v>
-      </c>
-      <c r="AE52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5551,10 +5393,10 @@
         <v>4500</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>5133.333333</v>
       </c>
       <c r="G53" t="n">
-        <v>5133.333333333</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -5563,13 +5405,13 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>15479.6748</v>
       </c>
       <c r="K53" t="n">
-        <v>15479.674796748</v>
+        <v>497405</v>
       </c>
       <c r="L53" t="n">
-        <v>497405</v>
+        <v>0</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
@@ -5587,10 +5429,10 @@
         <v>0</v>
       </c>
       <c r="R53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T53" t="n">
         <v>0</v>
@@ -5608,24 +5450,21 @@
         <v>0</v>
       </c>
       <c r="Y53" t="n">
-        <v>0</v>
+        <v>0.00437113444692316</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.00437113444692316</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA53" t="n">
-        <v>0.0101010101010101</v>
+        <v>29</v>
       </c>
       <c r="AB53" t="n">
         <v>29</v>
       </c>
       <c r="AC53" t="n">
-        <v>29</v>
+        <v>20.56555353171865</v>
       </c>
       <c r="AD53" t="n">
-        <v>20.56555353171865</v>
-      </c>
-      <c r="AE53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5654,19 +5493,19 @@
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>404886.09</v>
       </c>
       <c r="I54" t="n">
-        <v>404886.09</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>7170.731707</v>
       </c>
       <c r="K54" t="n">
-        <v>7170.731707317</v>
+        <v>501747.1</v>
       </c>
       <c r="L54" t="n">
-        <v>501747.1</v>
+        <v>0</v>
       </c>
       <c r="M54" t="n">
         <v>0</v>
@@ -5687,10 +5526,10 @@
         <v>0</v>
       </c>
       <c r="S54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U54" t="n">
         <v>0</v>
@@ -5705,24 +5544,21 @@
         <v>0</v>
       </c>
       <c r="Y54" t="n">
-        <v>0</v>
+        <v>0.002545820485515261</v>
       </c>
       <c r="Z54" t="n">
-        <v>0.002545820485515261</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA54" t="n">
-        <v>0.0101010101010101</v>
+        <v>28</v>
       </c>
       <c r="AB54" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC54" t="n">
-        <v>29</v>
+        <v>20.56555353171865</v>
       </c>
       <c r="AD54" t="n">
-        <v>20.56555353171865</v>
-      </c>
-      <c r="AE54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5757,13 +5593,13 @@
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
+        <v>7170.731707</v>
       </c>
       <c r="K55" t="n">
-        <v>7170.731707317</v>
+        <v>510019.7</v>
       </c>
       <c r="L55" t="n">
-        <v>510019.7</v>
+        <v>0</v>
       </c>
       <c r="M55" t="n">
         <v>0</v>
@@ -5784,10 +5620,10 @@
         <v>0</v>
       </c>
       <c r="S55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U55" t="n">
         <v>0</v>
@@ -5802,24 +5638,21 @@
         <v>0</v>
       </c>
       <c r="Y55" t="n">
-        <v>0</v>
+        <v>0.003197490231616198</v>
       </c>
       <c r="Z55" t="n">
-        <v>0.003197490231616198</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA55" t="n">
-        <v>0.0101010101010101</v>
+        <v>33</v>
       </c>
       <c r="AB55" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="AC55" t="n">
-        <v>27</v>
+        <v>20.56555353171865</v>
       </c>
       <c r="AD55" t="n">
-        <v>20.56555353171865</v>
-      </c>
-      <c r="AE55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5854,13 +5687,13 @@
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
+        <v>7170.731707</v>
       </c>
       <c r="K56" t="n">
-        <v>7170.731707317</v>
+        <v>512028.2</v>
       </c>
       <c r="L56" t="n">
-        <v>512028.2</v>
+        <v>0</v>
       </c>
       <c r="M56" t="n">
         <v>0</v>
@@ -5881,10 +5714,10 @@
         <v>0</v>
       </c>
       <c r="S56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U56" t="n">
         <v>0</v>
@@ -5899,24 +5732,21 @@
         <v>0</v>
       </c>
       <c r="Y56" t="n">
-        <v>0</v>
+        <v>0.005302044169953019</v>
       </c>
       <c r="Z56" t="n">
-        <v>0.005302044169953019</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA56" t="n">
-        <v>0.0101010101010101</v>
+        <v>32</v>
       </c>
       <c r="AB56" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AC56" t="n">
-        <v>29</v>
+        <v>20.56555353171865</v>
       </c>
       <c r="AD56" t="n">
-        <v>20.56555353171865</v>
-      </c>
-      <c r="AE56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5951,13 +5781,13 @@
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
+        <v>7170.731707</v>
       </c>
       <c r="K57" t="n">
-        <v>7170.731707317</v>
+        <v>519336.9</v>
       </c>
       <c r="L57" t="n">
-        <v>519336.9</v>
+        <v>0</v>
       </c>
       <c r="M57" t="n">
         <v>0</v>
@@ -5978,10 +5808,10 @@
         <v>0</v>
       </c>
       <c r="S57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U57" t="n">
         <v>0</v>
@@ -5996,24 +5826,21 @@
         <v>0</v>
       </c>
       <c r="Y57" t="n">
-        <v>0</v>
+        <v>0.005704508042787212</v>
       </c>
       <c r="Z57" t="n">
-        <v>0.005704508042787212</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA57" t="n">
-        <v>0.0101010101010101</v>
+        <v>29</v>
       </c>
       <c r="AB57" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC57" t="n">
-        <v>34</v>
+        <v>20.56555353171865</v>
       </c>
       <c r="AD57" t="n">
-        <v>20.56555353171865</v>
-      </c>
-      <c r="AE57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6042,19 +5869,19 @@
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>130060.82</v>
       </c>
       <c r="I58" t="n">
-        <v>130060.82</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
+        <v>7170.731707</v>
       </c>
       <c r="K58" t="n">
-        <v>7170.731707317</v>
+        <v>556629.8</v>
       </c>
       <c r="L58" t="n">
-        <v>556629.8</v>
+        <v>0</v>
       </c>
       <c r="M58" t="n">
         <v>0</v>
@@ -6075,10 +5902,10 @@
         <v>0</v>
       </c>
       <c r="S58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U58" t="n">
         <v>0</v>
@@ -6093,24 +5920,21 @@
         <v>0</v>
       </c>
       <c r="Y58" t="n">
-        <v>0</v>
+        <v>0.009090172517134055</v>
       </c>
       <c r="Z58" t="n">
-        <v>0.009090172517134055</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA58" t="n">
-        <v>0.0101010101010101</v>
+        <v>42</v>
       </c>
       <c r="AB58" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="AC58" t="n">
-        <v>30</v>
+        <v>20.56555353171865</v>
       </c>
       <c r="AD58" t="n">
-        <v>20.56555353171865</v>
-      </c>
-      <c r="AE58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6139,19 +5963,19 @@
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>147822.03</v>
       </c>
       <c r="I59" t="n">
-        <v>147822.03</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
         <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>546423.8</v>
       </c>
       <c r="L59" t="n">
-        <v>546423.8</v>
+        <v>0</v>
       </c>
       <c r="M59" t="n">
         <v>0</v>
@@ -6175,10 +5999,10 @@
         <v>0</v>
       </c>
       <c r="T59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V59" t="n">
         <v>0</v>
@@ -6190,24 +6014,21 @@
         <v>0</v>
       </c>
       <c r="Y59" t="n">
-        <v>0</v>
+        <v>0.007606325146227353</v>
       </c>
       <c r="Z59" t="n">
-        <v>0.007606325146227353</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA59" t="n">
-        <v>0.0101010101010101</v>
+        <v>39</v>
       </c>
       <c r="AB59" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="AC59" t="n">
-        <v>30</v>
+        <v>20.56555353171865</v>
       </c>
       <c r="AD59" t="n">
-        <v>20.56555353171865</v>
-      </c>
-      <c r="AE59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6245,10 +6066,10 @@
         <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>0</v>
+        <v>539563.8</v>
       </c>
       <c r="L60" t="n">
-        <v>539563.8</v>
+        <v>0</v>
       </c>
       <c r="M60" t="n">
         <v>0</v>
@@ -6272,10 +6093,10 @@
         <v>0</v>
       </c>
       <c r="T60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
@@ -6287,24 +6108,21 @@
         <v>0</v>
       </c>
       <c r="Y60" t="n">
-        <v>0</v>
+        <v>0.007307142415619871</v>
       </c>
       <c r="Z60" t="n">
-        <v>0.007307142415619871</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA60" t="n">
-        <v>0.0101010101010101</v>
+        <v>34</v>
       </c>
       <c r="AB60" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AC60" t="n">
-        <v>37</v>
+        <v>20.56555353171865</v>
       </c>
       <c r="AD60" t="n">
-        <v>20.56555353171865</v>
-      </c>
-      <c r="AE60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6342,10 +6160,10 @@
         <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>489489.5</v>
       </c>
       <c r="L61" t="n">
-        <v>489489.5</v>
+        <v>0</v>
       </c>
       <c r="M61" t="n">
         <v>0</v>
@@ -6369,10 +6187,10 @@
         <v>0</v>
       </c>
       <c r="T61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V61" t="n">
         <v>0</v>
@@ -6384,24 +6202,21 @@
         <v>0</v>
       </c>
       <c r="Y61" t="n">
-        <v>0</v>
+        <v>0.006653400945457578</v>
       </c>
       <c r="Z61" t="n">
-        <v>0.006653400945457578</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA61" t="n">
-        <v>0.0101010101010101</v>
+        <v>31</v>
       </c>
       <c r="AB61" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="AC61" t="n">
-        <v>36</v>
+        <v>20.56555353171865</v>
       </c>
       <c r="AD61" t="n">
-        <v>20.56555353171865</v>
-      </c>
-      <c r="AE61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6439,10 +6254,10 @@
         <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>465511.8</v>
       </c>
       <c r="L62" t="n">
-        <v>465511.8</v>
+        <v>0</v>
       </c>
       <c r="M62" t="n">
         <v>0</v>
@@ -6466,10 +6281,10 @@
         <v>0</v>
       </c>
       <c r="T62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V62" t="n">
         <v>0</v>
@@ -6481,24 +6296,21 @@
         <v>0</v>
       </c>
       <c r="Y62" t="n">
-        <v>0</v>
+        <v>0.007690430348873847</v>
       </c>
       <c r="Z62" t="n">
-        <v>0.007690430348873847</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA62" t="n">
-        <v>0.0101010101010101</v>
+        <v>25</v>
       </c>
       <c r="AB62" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="AC62" t="n">
-        <v>35</v>
+        <v>20.56555353171865</v>
       </c>
       <c r="AD62" t="n">
-        <v>20.56555353171865</v>
-      </c>
-      <c r="AE62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6536,10 +6348,10 @@
         <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>435809.9</v>
       </c>
       <c r="L63" t="n">
-        <v>435809.9</v>
+        <v>0</v>
       </c>
       <c r="M63" t="n">
         <v>0</v>
@@ -6566,10 +6378,10 @@
         <v>0</v>
       </c>
       <c r="U63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W63" t="n">
         <v>0</v>
@@ -6578,24 +6390,21 @@
         <v>0</v>
       </c>
       <c r="Y63" t="n">
-        <v>0</v>
+        <v>0.006448453933323168</v>
       </c>
       <c r="Z63" t="n">
-        <v>0.006448453933323168</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA63" t="n">
-        <v>0.0101010101010101</v>
+        <v>22</v>
       </c>
       <c r="AB63" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="AC63" t="n">
-        <v>31</v>
+        <v>20.56555353171865</v>
       </c>
       <c r="AD63" t="n">
-        <v>20.56555353171865</v>
-      </c>
-      <c r="AE63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6633,10 +6442,10 @@
         <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>413259.4</v>
       </c>
       <c r="L64" t="n">
-        <v>413259.4</v>
+        <v>0</v>
       </c>
       <c r="M64" t="n">
         <v>0</v>
@@ -6663,10 +6472,10 @@
         <v>0</v>
       </c>
       <c r="U64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W64" t="n">
         <v>0</v>
@@ -6675,24 +6484,21 @@
         <v>0</v>
       </c>
       <c r="Y64" t="n">
-        <v>0</v>
+        <v>0.008200075498693608</v>
       </c>
       <c r="Z64" t="n">
-        <v>0.008200075498693608</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA64" t="n">
-        <v>0.0101010101010101</v>
+        <v>14</v>
       </c>
       <c r="AB64" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="AC64" t="n">
-        <v>27</v>
+        <v>20.56555353171865</v>
       </c>
       <c r="AD64" t="n">
-        <v>20.56555353171865</v>
-      </c>
-      <c r="AE64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6730,10 +6536,10 @@
         <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>0</v>
+        <v>478651.3</v>
       </c>
       <c r="L65" t="n">
-        <v>478651.3</v>
+        <v>0</v>
       </c>
       <c r="M65" t="n">
         <v>0</v>
@@ -6760,10 +6566,10 @@
         <v>0</v>
       </c>
       <c r="U65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W65" t="n">
         <v>0</v>
@@ -6772,24 +6578,21 @@
         <v>0</v>
       </c>
       <c r="Y65" t="n">
-        <v>0</v>
+        <v>0.01178235339397138</v>
       </c>
       <c r="Z65" t="n">
-        <v>0.01178235339397138</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA65" t="n">
-        <v>0.0101010101010101</v>
+        <v>31</v>
       </c>
       <c r="AB65" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="AC65" t="n">
-        <v>28</v>
+        <v>20.56555353171865</v>
       </c>
       <c r="AD65" t="n">
-        <v>20.56555353171865</v>
-      </c>
-      <c r="AE65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6827,10 +6630,10 @@
         <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>503722.8</v>
       </c>
       <c r="L66" t="n">
-        <v>503722.8</v>
+        <v>0</v>
       </c>
       <c r="M66" t="n">
         <v>0</v>
@@ -6857,10 +6660,10 @@
         <v>0</v>
       </c>
       <c r="U66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W66" t="n">
         <v>0</v>
@@ -6869,24 +6672,21 @@
         <v>0</v>
       </c>
       <c r="Y66" t="n">
-        <v>0</v>
+        <v>0.02844714076958525</v>
       </c>
       <c r="Z66" t="n">
-        <v>0.02844714076958525</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA66" t="n">
-        <v>0.0101010101010101</v>
+        <v>29</v>
       </c>
       <c r="AB66" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC66" t="n">
-        <v>26</v>
+        <v>20.56555353171865</v>
       </c>
       <c r="AD66" t="n">
-        <v>20.56555353171865</v>
-      </c>
-      <c r="AE66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6909,10 +6709,10 @@
         <v>7229.25</v>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="G67" t="n">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -6921,13 +6721,13 @@
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="K67" t="n">
-        <v>6000</v>
+        <v>406094.2</v>
       </c>
       <c r="L67" t="n">
-        <v>406094.2</v>
+        <v>0</v>
       </c>
       <c r="M67" t="n">
         <v>0</v>
@@ -6957,33 +6757,30 @@
         <v>0</v>
       </c>
       <c r="V67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X67" t="n">
         <v>0</v>
       </c>
       <c r="Y67" t="n">
-        <v>0</v>
+        <v>0.01080954111593122</v>
       </c>
       <c r="Z67" t="n">
-        <v>0.01080954111593122</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA67" t="n">
-        <v>0.0101010101010101</v>
+        <v>13</v>
       </c>
       <c r="AB67" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="AC67" t="n">
-        <v>24</v>
+        <v>20.56555353171865</v>
       </c>
       <c r="AD67" t="n">
-        <v>20.56555353171865</v>
-      </c>
-      <c r="AE67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7006,10 +6803,10 @@
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>3733.333333</v>
       </c>
       <c r="G68" t="n">
-        <v>3733.333333333</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -7018,13 +6815,13 @@
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="K68" t="n">
-        <v>7000</v>
+        <v>368962.3</v>
       </c>
       <c r="L68" t="n">
-        <v>368962.3</v>
+        <v>0</v>
       </c>
       <c r="M68" t="n">
         <v>0</v>
@@ -7054,33 +6851,30 @@
         <v>0</v>
       </c>
       <c r="V68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X68" t="n">
         <v>0</v>
       </c>
       <c r="Y68" t="n">
-        <v>0</v>
+        <v>0.007825440334571283</v>
       </c>
       <c r="Z68" t="n">
-        <v>0.007825440334571283</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA68" t="n">
-        <v>0.0101010101010101</v>
+        <v>10</v>
       </c>
       <c r="AB68" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AC68" t="n">
-        <v>25</v>
+        <v>20.56555353171865</v>
       </c>
       <c r="AD68" t="n">
-        <v>20.56555353171865</v>
-      </c>
-      <c r="AE68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7103,10 +6897,10 @@
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>1066.666667</v>
       </c>
       <c r="G69" t="n">
-        <v>1066.666666667</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -7115,13 +6909,13 @@
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="K69" t="n">
-        <v>2000</v>
+        <v>426936.2</v>
       </c>
       <c r="L69" t="n">
-        <v>426936.2</v>
+        <v>0</v>
       </c>
       <c r="M69" t="n">
         <v>0</v>
@@ -7151,33 +6945,30 @@
         <v>0</v>
       </c>
       <c r="V69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X69" t="n">
         <v>0</v>
       </c>
       <c r="Y69" t="n">
-        <v>0</v>
+        <v>0.01378572695054878</v>
       </c>
       <c r="Z69" t="n">
-        <v>0.01378572695054878</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA69" t="n">
-        <v>0.0101010101010101</v>
+        <v>63</v>
       </c>
       <c r="AB69" t="n">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="AC69" t="n">
-        <v>27</v>
+        <v>20.56555353171865</v>
       </c>
       <c r="AD69" t="n">
-        <v>20.56555353171865</v>
-      </c>
-      <c r="AE69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7215,10 +7006,10 @@
         <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>364204.1</v>
       </c>
       <c r="L70" t="n">
-        <v>364204.1</v>
+        <v>0</v>
       </c>
       <c r="M70" t="n">
         <v>0</v>
@@ -7248,33 +7039,30 @@
         <v>0</v>
       </c>
       <c r="V70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X70" t="n">
         <v>0</v>
       </c>
       <c r="Y70" t="n">
-        <v>0</v>
+        <v>0.02715259814087369</v>
       </c>
       <c r="Z70" t="n">
-        <v>0.02715259814087369</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA70" t="n">
-        <v>0.0101010101010101</v>
+        <v>32</v>
       </c>
       <c r="AB70" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC70" t="n">
-        <v>35</v>
+        <v>20.56555353171865</v>
       </c>
       <c r="AD70" t="n">
-        <v>20.56555353171865</v>
-      </c>
-      <c r="AE70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7312,10 +7100,10 @@
         <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>485871.2</v>
       </c>
       <c r="L71" t="n">
-        <v>485871.2</v>
+        <v>0</v>
       </c>
       <c r="M71" t="n">
         <v>0</v>
@@ -7345,33 +7133,30 @@
         <v>0</v>
       </c>
       <c r="V71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X71" t="n">
         <v>0</v>
       </c>
       <c r="Y71" t="n">
-        <v>0</v>
+        <v>0.03569393226003413</v>
       </c>
       <c r="Z71" t="n">
-        <v>0.03569393226003413</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA71" t="n">
-        <v>0.0101010101010101</v>
+        <v>43</v>
       </c>
       <c r="AB71" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="AC71" t="n">
-        <v>37</v>
+        <v>20.56555353171865</v>
       </c>
       <c r="AD71" t="n">
-        <v>20.56555353171865</v>
-      </c>
-      <c r="AE71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7409,10 +7194,10 @@
         <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>0</v>
+        <v>468614.5</v>
       </c>
       <c r="L72" t="n">
-        <v>468614.5</v>
+        <v>0</v>
       </c>
       <c r="M72" t="n">
         <v>0</v>
@@ -7445,30 +7230,27 @@
         <v>0</v>
       </c>
       <c r="W72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y72" t="n">
-        <v>0</v>
+        <v>0.03088047603857828</v>
       </c>
       <c r="Z72" t="n">
-        <v>0.03088047603857828</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA72" t="n">
-        <v>0.0101010101010101</v>
+        <v>20</v>
       </c>
       <c r="AB72" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="AC72" t="n">
-        <v>32</v>
+        <v>20.56555353171865</v>
       </c>
       <c r="AD72" t="n">
-        <v>20.56555353171865</v>
-      </c>
-      <c r="AE72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7506,10 +7288,10 @@
         <v>0</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>389299.8</v>
       </c>
       <c r="L73" t="n">
-        <v>389299.8</v>
+        <v>0</v>
       </c>
       <c r="M73" t="n">
         <v>0</v>
@@ -7542,30 +7324,27 @@
         <v>0</v>
       </c>
       <c r="W73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y73" t="n">
-        <v>0</v>
+        <v>0.02579766790691434</v>
       </c>
       <c r="Z73" t="n">
-        <v>0.02579766790691434</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA73" t="n">
-        <v>0.0101010101010101</v>
+        <v>16</v>
       </c>
       <c r="AB73" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="AC73" t="n">
-        <v>31</v>
+        <v>20.56555353171865</v>
       </c>
       <c r="AD73" t="n">
-        <v>20.56555353171865</v>
-      </c>
-      <c r="AE73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7603,10 +7382,10 @@
         <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>0</v>
+        <v>371603.5</v>
       </c>
       <c r="L74" t="n">
-        <v>371603.5</v>
+        <v>0</v>
       </c>
       <c r="M74" t="n">
         <v>0</v>
@@ -7639,30 +7418,27 @@
         <v>0</v>
       </c>
       <c r="W74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y74" t="n">
-        <v>0</v>
+        <v>0.0105822329735973</v>
       </c>
       <c r="Z74" t="n">
-        <v>0.0105822329735973</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA74" t="n">
-        <v>0.0101010101010101</v>
+        <v>33</v>
       </c>
       <c r="AB74" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="AC74" t="n">
-        <v>27</v>
+        <v>20.56555353171865</v>
       </c>
       <c r="AD74" t="n">
-        <v>20.56555353171865</v>
-      </c>
-      <c r="AE74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7700,10 +7476,10 @@
         <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>0</v>
+        <v>380988.3</v>
       </c>
       <c r="L75" t="n">
-        <v>380988.3</v>
+        <v>0</v>
       </c>
       <c r="M75" t="n">
         <v>0</v>
@@ -7736,30 +7512,27 @@
         <v>0</v>
       </c>
       <c r="W75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y75" t="n">
-        <v>0</v>
+        <v>0.01790255139203105</v>
       </c>
       <c r="Z75" t="n">
-        <v>0.01790255139203105</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA75" t="n">
-        <v>0.0101010101010101</v>
+        <v>30</v>
       </c>
       <c r="AB75" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AC75" t="n">
-        <v>35</v>
+        <v>20.56555353171865</v>
       </c>
       <c r="AD75" t="n">
-        <v>20.56555353171865</v>
-      </c>
-      <c r="AE75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7797,10 +7570,10 @@
         <v>0</v>
       </c>
       <c r="K76" t="n">
-        <v>0</v>
+        <v>429008</v>
       </c>
       <c r="L76" t="n">
-        <v>429008</v>
+        <v>0</v>
       </c>
       <c r="M76" t="n">
         <v>0</v>
@@ -7836,27 +7609,24 @@
         <v>0</v>
       </c>
       <c r="X76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y76" t="n">
-        <v>1</v>
+        <v>0.01386153067190398</v>
       </c>
       <c r="Z76" t="n">
-        <v>0.01386153067190398</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA76" t="n">
-        <v>0.0101010101010101</v>
+        <v>45</v>
       </c>
       <c r="AB76" t="n">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="AC76" t="n">
-        <v>32</v>
+        <v>20.56555353171865</v>
       </c>
       <c r="AD76" t="n">
-        <v>20.56555353171865</v>
-      </c>
-      <c r="AE76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7894,10 +7664,10 @@
         <v>0</v>
       </c>
       <c r="K77" t="n">
-        <v>0</v>
+        <v>416374.5</v>
       </c>
       <c r="L77" t="n">
-        <v>416374.5</v>
+        <v>0</v>
       </c>
       <c r="M77" t="n">
         <v>0</v>
@@ -7933,27 +7703,24 @@
         <v>0</v>
       </c>
       <c r="X77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y77" t="n">
-        <v>1</v>
+        <v>0.01400517204100869</v>
       </c>
       <c r="Z77" t="n">
-        <v>0.01400517204100869</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA77" t="n">
-        <v>0.0101010101010101</v>
+        <v>57</v>
       </c>
       <c r="AB77" t="n">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="AC77" t="n">
-        <v>26</v>
+        <v>20.56555353171865</v>
       </c>
       <c r="AD77" t="n">
-        <v>20.56555353171865</v>
-      </c>
-      <c r="AE77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7991,10 +7758,10 @@
         <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>0</v>
+        <v>527092.4</v>
       </c>
       <c r="L78" t="n">
-        <v>527092.4</v>
+        <v>0</v>
       </c>
       <c r="M78" t="n">
         <v>0</v>
@@ -8030,27 +7797,24 @@
         <v>0</v>
       </c>
       <c r="X78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y78" t="n">
-        <v>1</v>
+        <v>0.0143223944506718</v>
       </c>
       <c r="Z78" t="n">
-        <v>0.0143223944506718</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA78" t="n">
-        <v>0.0101010101010101</v>
+        <v>85</v>
       </c>
       <c r="AB78" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AC78" t="n">
-        <v>25</v>
+        <v>20.56555353171865</v>
       </c>
       <c r="AD78" t="n">
-        <v>20.56555353171865</v>
-      </c>
-      <c r="AE78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8088,13 +7852,13 @@
         <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>458812</v>
       </c>
       <c r="L79" t="n">
-        <v>458812</v>
+        <v>1</v>
       </c>
       <c r="M79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N79" t="n">
         <v>0</v>
@@ -8127,27 +7891,24 @@
         <v>0</v>
       </c>
       <c r="X79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y79" t="n">
-        <v>1</v>
+        <v>0.01179564814916764</v>
       </c>
       <c r="Z79" t="n">
-        <v>0.01179564814916764</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA79" t="n">
-        <v>0.0101010101010101</v>
+        <v>24</v>
       </c>
       <c r="AB79" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="AC79" t="n">
-        <v>31</v>
+        <v>20.56555353171865</v>
       </c>
       <c r="AD79" t="n">
-        <v>20.56555353171865</v>
-      </c>
-      <c r="AE79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8182,19 +7943,19 @@
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="K80" t="n">
-        <v>1000</v>
+        <v>412826.9</v>
       </c>
       <c r="L80" t="n">
-        <v>412826.9</v>
+        <v>0</v>
       </c>
       <c r="M80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O80" t="n">
         <v>0</v>
@@ -8227,24 +7988,21 @@
         <v>0</v>
       </c>
       <c r="Y80" t="n">
-        <v>0</v>
+        <v>0.006542962425941732</v>
       </c>
       <c r="Z80" t="n">
-        <v>0.006542962425941732</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA80" t="n">
-        <v>0.0101010101010101</v>
+        <v>9</v>
       </c>
       <c r="AB80" t="n">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="AC80" t="n">
-        <v>41</v>
+        <v>20.8289017019285</v>
       </c>
       <c r="AD80" t="n">
-        <v>20.8289017019285</v>
-      </c>
-      <c r="AE80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8282,16 +8040,16 @@
         <v>0</v>
       </c>
       <c r="K81" t="n">
-        <v>0</v>
+        <v>501727.6</v>
       </c>
       <c r="L81" t="n">
-        <v>501727.6</v>
+        <v>0</v>
       </c>
       <c r="M81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O81" t="n">
         <v>0</v>
@@ -8324,24 +8082,21 @@
         <v>0</v>
       </c>
       <c r="Y81" t="n">
-        <v>0</v>
+        <v>0.03464152064965953</v>
       </c>
       <c r="Z81" t="n">
-        <v>0.03464152064965953</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA81" t="n">
-        <v>0.0101010101010101</v>
+        <v>39</v>
       </c>
       <c r="AB81" t="n">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="AC81" t="n">
-        <v>26</v>
+        <v>20.8289017019285</v>
       </c>
       <c r="AD81" t="n">
-        <v>20.8289017019285</v>
-      </c>
-      <c r="AE81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8379,16 +8134,16 @@
         <v>0</v>
       </c>
       <c r="K82" t="n">
-        <v>0</v>
+        <v>380890.1</v>
       </c>
       <c r="L82" t="n">
-        <v>380890.1</v>
+        <v>0</v>
       </c>
       <c r="M82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O82" t="n">
         <v>0</v>
@@ -8421,24 +8176,21 @@
         <v>0</v>
       </c>
       <c r="Y82" t="n">
-        <v>0</v>
+        <v>0.02264941868386761</v>
       </c>
       <c r="Z82" t="n">
-        <v>0.02264941868386761</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA82" t="n">
-        <v>0.0101010101010101</v>
+        <v>34</v>
       </c>
       <c r="AB82" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="AC82" t="n">
-        <v>24</v>
+        <v>20.8289017019285</v>
       </c>
       <c r="AD82" t="n">
-        <v>20.8289017019285</v>
-      </c>
-      <c r="AE82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8476,16 +8228,16 @@
         <v>0</v>
       </c>
       <c r="K83" t="n">
-        <v>0</v>
+        <v>353962.2</v>
       </c>
       <c r="L83" t="n">
-        <v>353962.2</v>
+        <v>0</v>
       </c>
       <c r="M83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O83" t="n">
         <v>0</v>
@@ -8518,24 +8270,21 @@
         <v>0</v>
       </c>
       <c r="Y83" t="n">
-        <v>0</v>
+        <v>0.008371128671742719</v>
       </c>
       <c r="Z83" t="n">
-        <v>0.008371128671742719</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA83" t="n">
-        <v>0.0101010101010101</v>
+        <v>22</v>
       </c>
       <c r="AB83" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="AC83" t="n">
-        <v>31</v>
+        <v>20.8289017019285</v>
       </c>
       <c r="AD83" t="n">
-        <v>20.8289017019285</v>
-      </c>
-      <c r="AE83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8573,16 +8322,16 @@
         <v>0</v>
       </c>
       <c r="K84" t="n">
-        <v>0</v>
+        <v>355131.9</v>
       </c>
       <c r="L84" t="n">
-        <v>355131.9</v>
+        <v>0</v>
       </c>
       <c r="M84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O84" t="n">
         <v>0</v>
@@ -8615,24 +8364,21 @@
         <v>0</v>
       </c>
       <c r="Y84" t="n">
-        <v>0</v>
+        <v>0.006269717046145053</v>
       </c>
       <c r="Z84" t="n">
-        <v>0.006269717046145053</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA84" t="n">
-        <v>0.0101010101010101</v>
+        <v>23</v>
       </c>
       <c r="AB84" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="AC84" t="n">
-        <v>32</v>
+        <v>20.8289017019285</v>
       </c>
       <c r="AD84" t="n">
-        <v>20.8289017019285</v>
-      </c>
-      <c r="AE84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8670,19 +8416,19 @@
         <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>0</v>
+        <v>359664</v>
       </c>
       <c r="L85" t="n">
-        <v>359664</v>
+        <v>0</v>
       </c>
       <c r="M85" t="n">
         <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P85" t="n">
         <v>0</v>
@@ -8712,24 +8458,21 @@
         <v>0</v>
       </c>
       <c r="Y85" t="n">
-        <v>0</v>
+        <v>0.00318567247486958</v>
       </c>
       <c r="Z85" t="n">
-        <v>0.00318567247486958</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA85" t="n">
-        <v>0.0101010101010101</v>
+        <v>13</v>
       </c>
       <c r="AB85" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="AC85" t="n">
-        <v>30</v>
+        <v>20.8289017019285</v>
       </c>
       <c r="AD85" t="n">
-        <v>20.8289017019285</v>
-      </c>
-      <c r="AE85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8767,19 +8510,19 @@
         <v>0</v>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
+        <v>349089.8</v>
       </c>
       <c r="L86" t="n">
-        <v>349089.8</v>
+        <v>0</v>
       </c>
       <c r="M86" t="n">
         <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P86" t="n">
         <v>0</v>
@@ -8809,24 +8552,21 @@
         <v>0</v>
       </c>
       <c r="Y86" t="n">
-        <v>0</v>
+        <v>0.0002767931389714694</v>
       </c>
       <c r="Z86" t="n">
-        <v>0.0002767931389714694</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA86" t="n">
-        <v>0.0101010101010101</v>
+        <v>12</v>
       </c>
       <c r="AB86" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="AC86" t="n">
-        <v>28</v>
+        <v>20.8289017019285</v>
       </c>
       <c r="AD86" t="n">
-        <v>20.8289017019285</v>
-      </c>
-      <c r="AE86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8864,19 +8604,19 @@
         <v>0</v>
       </c>
       <c r="K87" t="n">
-        <v>0</v>
+        <v>351207.4</v>
       </c>
       <c r="L87" t="n">
-        <v>351207.4</v>
+        <v>0</v>
       </c>
       <c r="M87" t="n">
         <v>0</v>
       </c>
       <c r="N87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P87" t="n">
         <v>0</v>
@@ -8906,24 +8646,21 @@
         <v>0</v>
       </c>
       <c r="Y87" t="n">
-        <v>0</v>
+        <v>-0.0002869853509251468</v>
       </c>
       <c r="Z87" t="n">
-        <v>-0.0002869853509251468</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA87" t="n">
-        <v>0.0101010101010101</v>
+        <v>0</v>
       </c>
       <c r="AB87" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AC87" t="n">
-        <v>27</v>
+        <v>20.8289017019285</v>
       </c>
       <c r="AD87" t="n">
-        <v>20.8289017019285</v>
-      </c>
-      <c r="AE87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8961,19 +8698,19 @@
         <v>0</v>
       </c>
       <c r="K88" t="n">
-        <v>0</v>
+        <v>362100.7</v>
       </c>
       <c r="L88" t="n">
-        <v>362100.7</v>
+        <v>0</v>
       </c>
       <c r="M88" t="n">
         <v>0</v>
       </c>
       <c r="N88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P88" t="n">
         <v>0</v>
@@ -9003,24 +8740,21 @@
         <v>0</v>
       </c>
       <c r="Y88" t="n">
-        <v>0</v>
+        <v>-0.0002720456314996333</v>
       </c>
       <c r="Z88" t="n">
-        <v>-0.0002720456314996333</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA88" t="n">
-        <v>0.0101010101010101</v>
+        <v>0</v>
       </c>
       <c r="AB88" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AC88" t="n">
-        <v>27</v>
+        <v>20.8289017019285</v>
       </c>
       <c r="AD88" t="n">
-        <v>20.8289017019285</v>
-      </c>
-      <c r="AE88" t="n">
         <v>18.651428571</v>
       </c>
     </row>
@@ -9058,10 +8792,10 @@
         <v>0</v>
       </c>
       <c r="K89" t="n">
-        <v>0</v>
+        <v>373124.5</v>
       </c>
       <c r="L89" t="n">
-        <v>373124.5</v>
+        <v>0</v>
       </c>
       <c r="M89" t="n">
         <v>0</v>
@@ -9070,10 +8804,10 @@
         <v>0</v>
       </c>
       <c r="O89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q89" t="n">
         <v>0</v>
@@ -9100,24 +8834,21 @@
         <v>0</v>
       </c>
       <c r="Y89" t="n">
-        <v>0</v>
+        <v>0.003571348907385504</v>
       </c>
       <c r="Z89" t="n">
-        <v>0.003571348907385504</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA89" t="n">
-        <v>0.0101010101010101</v>
+        <v>7</v>
       </c>
       <c r="AB89" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="AC89" t="n">
-        <v>28</v>
+        <v>20.8289017019285</v>
       </c>
       <c r="AD89" t="n">
-        <v>20.8289017019285</v>
-      </c>
-      <c r="AE89" t="n">
         <v>43.98</v>
       </c>
     </row>
@@ -9155,10 +8886,10 @@
         <v>0</v>
       </c>
       <c r="K90" t="n">
-        <v>0</v>
+        <v>398189.3</v>
       </c>
       <c r="L90" t="n">
-        <v>398189.3</v>
+        <v>0</v>
       </c>
       <c r="M90" t="n">
         <v>0</v>
@@ -9167,10 +8898,10 @@
         <v>0</v>
       </c>
       <c r="O90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q90" t="n">
         <v>0</v>
@@ -9197,24 +8928,21 @@
         <v>0</v>
       </c>
       <c r="Y90" t="n">
-        <v>0</v>
+        <v>0.002331480227889832</v>
       </c>
       <c r="Z90" t="n">
-        <v>0.002331480227889832</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA90" t="n">
-        <v>0.0101010101010101</v>
+        <v>11</v>
       </c>
       <c r="AB90" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AC90" t="n">
-        <v>20</v>
+        <v>20.8289017019285</v>
       </c>
       <c r="AD90" t="n">
-        <v>20.8289017019285</v>
-      </c>
-      <c r="AE90" t="n">
         <v>45.568571429</v>
       </c>
     </row>
@@ -9252,10 +8980,10 @@
         <v>0</v>
       </c>
       <c r="K91" t="n">
-        <v>0</v>
+        <v>371706.8</v>
       </c>
       <c r="L91" t="n">
-        <v>371706.8</v>
+        <v>0</v>
       </c>
       <c r="M91" t="n">
         <v>0</v>
@@ -9264,10 +8992,10 @@
         <v>0</v>
       </c>
       <c r="O91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q91" t="n">
         <v>0</v>
@@ -9294,24 +9022,21 @@
         <v>0</v>
       </c>
       <c r="Y91" t="n">
-        <v>0</v>
+        <v>-3.527607193329877e-05</v>
       </c>
       <c r="Z91" t="n">
-        <v>-3.527607193329877e-05</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA91" t="n">
-        <v>0.0101010101010101</v>
+        <v>0</v>
       </c>
       <c r="AB91" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AC91" t="n">
-        <v>21</v>
+        <v>20.8289017019285</v>
       </c>
       <c r="AD91" t="n">
-        <v>20.8289017019285</v>
-      </c>
-      <c r="AE91" t="n">
         <v>83.528571429</v>
       </c>
     </row>
@@ -9349,10 +9074,10 @@
         <v>0</v>
       </c>
       <c r="K92" t="n">
-        <v>0</v>
+        <v>340837.5</v>
       </c>
       <c r="L92" t="n">
-        <v>340837.5</v>
+        <v>0</v>
       </c>
       <c r="M92" t="n">
         <v>0</v>
@@ -9361,10 +9086,10 @@
         <v>0</v>
       </c>
       <c r="O92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q92" t="n">
         <v>0</v>
@@ -9391,24 +9116,21 @@
         <v>0</v>
       </c>
       <c r="Y92" t="n">
-        <v>0</v>
+        <v>-0.0005569389141133346</v>
       </c>
       <c r="Z92" t="n">
-        <v>-0.0005569389141133346</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA92" t="n">
-        <v>0.0101010101010101</v>
+        <v>0</v>
       </c>
       <c r="AB92" t="n">
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="AC92" t="n">
-        <v>20.5</v>
+        <v>20.8289017019285</v>
       </c>
       <c r="AD92" t="n">
-        <v>20.8289017019285</v>
-      </c>
-      <c r="AE92" t="n">
         <v>87.95999999999999</v>
       </c>
     </row>
@@ -9446,10 +9168,10 @@
         <v>0</v>
       </c>
       <c r="K93" t="n">
-        <v>0</v>
+        <v>372935.8</v>
       </c>
       <c r="L93" t="n">
-        <v>372935.8</v>
+        <v>0</v>
       </c>
       <c r="M93" t="n">
         <v>0</v>
@@ -9461,10 +9183,10 @@
         <v>0</v>
       </c>
       <c r="P93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R93" t="n">
         <v>0</v>
@@ -9488,24 +9210,21 @@
         <v>0</v>
       </c>
       <c r="Y93" t="n">
-        <v>0</v>
+        <v>0.003639806497956753</v>
       </c>
       <c r="Z93" t="n">
-        <v>0.003639806497956753</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA93" t="n">
-        <v>0.0101010101010101</v>
+        <v>33</v>
       </c>
       <c r="AB93" t="n">
-        <v>33</v>
+        <v>23.5</v>
       </c>
       <c r="AC93" t="n">
-        <v>23.5</v>
+        <v>20.8289017019285</v>
       </c>
       <c r="AD93" t="n">
-        <v>20.8289017019285</v>
-      </c>
-      <c r="AE93" t="n">
         <v>87.95999999999999</v>
       </c>
     </row>
@@ -9543,10 +9262,10 @@
         <v>0</v>
       </c>
       <c r="K94" t="n">
-        <v>0</v>
+        <v>458333.1</v>
       </c>
       <c r="L94" t="n">
-        <v>458333.1</v>
+        <v>0</v>
       </c>
       <c r="M94" t="n">
         <v>0</v>
@@ -9558,10 +9277,10 @@
         <v>0</v>
       </c>
       <c r="P94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R94" t="n">
         <v>0</v>
@@ -9585,24 +9304,21 @@
         <v>0</v>
       </c>
       <c r="Y94" t="n">
-        <v>0</v>
+        <v>0.004696267324961371</v>
       </c>
       <c r="Z94" t="n">
-        <v>0.004696267324961371</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA94" t="n">
-        <v>0.0101010101010101</v>
+        <v>46</v>
       </c>
       <c r="AB94" t="n">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="AC94" t="n">
-        <v>21</v>
+        <v>20.8289017019285</v>
       </c>
       <c r="AD94" t="n">
-        <v>20.8289017019285</v>
-      </c>
-      <c r="AE94" t="n">
         <v>87.95999999999999</v>
       </c>
     </row>
@@ -9637,13 +9353,13 @@
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>0</v>
+        <v>1654.9</v>
       </c>
       <c r="K95" t="n">
-        <v>1654.9</v>
+        <v>411335.7</v>
       </c>
       <c r="L95" t="n">
-        <v>411335.7</v>
+        <v>0</v>
       </c>
       <c r="M95" t="n">
         <v>0</v>
@@ -9655,10 +9371,10 @@
         <v>0</v>
       </c>
       <c r="P95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R95" t="n">
         <v>0</v>
@@ -9682,24 +9398,21 @@
         <v>0</v>
       </c>
       <c r="Y95" t="n">
-        <v>0</v>
+        <v>0.002267929313189486</v>
       </c>
       <c r="Z95" t="n">
-        <v>0.002267929313189486</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA95" t="n">
-        <v>0.0101010101010101</v>
+        <v>5</v>
       </c>
       <c r="AB95" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="AC95" t="n">
-        <v>21</v>
+        <v>20.8289017019285</v>
       </c>
       <c r="AD95" t="n">
-        <v>20.8289017019285</v>
-      </c>
-      <c r="AE95" t="n">
         <v>87.95999999999999</v>
       </c>
     </row>
@@ -9734,13 +9447,13 @@
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>0</v>
+        <v>1843.96</v>
       </c>
       <c r="K96" t="n">
-        <v>1843.96</v>
+        <v>418434.1</v>
       </c>
       <c r="L96" t="n">
-        <v>418434.1</v>
+        <v>0</v>
       </c>
       <c r="M96" t="n">
         <v>0</v>
@@ -9752,10 +9465,10 @@
         <v>0</v>
       </c>
       <c r="P96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R96" t="n">
         <v>0</v>
@@ -9779,24 +9492,21 @@
         <v>0</v>
       </c>
       <c r="Y96" t="n">
-        <v>0</v>
+        <v>0.001299394348995923</v>
       </c>
       <c r="Z96" t="n">
-        <v>0.001299394348995923</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA96" t="n">
-        <v>0.0101010101010101</v>
+        <v>5</v>
       </c>
       <c r="AB96" t="n">
-        <v>5</v>
+        <v>22.5</v>
       </c>
       <c r="AC96" t="n">
-        <v>22.5</v>
+        <v>20.8289017019285</v>
       </c>
       <c r="AD96" t="n">
-        <v>20.8289017019285</v>
-      </c>
-      <c r="AE96" t="n">
         <v>87.95999999999999</v>
       </c>
     </row>
@@ -9831,13 +9541,13 @@
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>0</v>
+        <v>1852.95</v>
       </c>
       <c r="K97" t="n">
-        <v>1852.95</v>
+        <v>428004.9</v>
       </c>
       <c r="L97" t="n">
-        <v>428004.9</v>
+        <v>0</v>
       </c>
       <c r="M97" t="n">
         <v>0</v>
@@ -9849,10 +9559,10 @@
         <v>0</v>
       </c>
       <c r="P97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R97" t="n">
         <v>0</v>
@@ -9876,24 +9586,21 @@
         <v>0</v>
       </c>
       <c r="Y97" t="n">
-        <v>0</v>
+        <v>0.00212934198648457</v>
       </c>
       <c r="Z97" t="n">
-        <v>0.00212934198648457</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA97" t="n">
-        <v>0.0101010101010101</v>
+        <v>37</v>
       </c>
       <c r="AB97" t="n">
-        <v>37</v>
+        <v>25.5</v>
       </c>
       <c r="AC97" t="n">
-        <v>25.5</v>
+        <v>20.8289017019285</v>
       </c>
       <c r="AD97" t="n">
-        <v>20.8289017019285</v>
-      </c>
-      <c r="AE97" t="n">
         <v>87.95999999999999</v>
       </c>
     </row>
@@ -9928,13 +9635,13 @@
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>0</v>
+        <v>133.11</v>
       </c>
       <c r="K98" t="n">
-        <v>133.11</v>
+        <v>492562.1</v>
       </c>
       <c r="L98" t="n">
-        <v>492562.1</v>
+        <v>0</v>
       </c>
       <c r="M98" t="n">
         <v>0</v>
@@ -9949,10 +9656,10 @@
         <v>0</v>
       </c>
       <c r="Q98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S98" t="n">
         <v>0</v>
@@ -9973,24 +9680,21 @@
         <v>0</v>
       </c>
       <c r="Y98" t="n">
-        <v>0</v>
+        <v>0.001377083796975972</v>
       </c>
       <c r="Z98" t="n">
-        <v>0.001377083796975972</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA98" t="n">
-        <v>0.0101010101010101</v>
+        <v>40</v>
       </c>
       <c r="AB98" t="n">
-        <v>40</v>
+        <v>26.5</v>
       </c>
       <c r="AC98" t="n">
-        <v>26.5</v>
+        <v>20.8289017019285</v>
       </c>
       <c r="AD98" t="n">
-        <v>20.8289017019285</v>
-      </c>
-      <c r="AE98" t="n">
         <v>87.95999999999999</v>
       </c>
     </row>
@@ -10013,7 +9717,7 @@
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>10832.602562</v>
+        <v>0</v>
       </c>
       <c r="G99" t="n">
         <v>0</v>
@@ -10022,16 +9726,16 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>10832.60256</v>
       </c>
       <c r="J99" t="n">
-        <v>0</v>
+        <v>22424.54</v>
       </c>
       <c r="K99" t="n">
-        <v>22424.540003</v>
+        <v>527817.3</v>
       </c>
       <c r="L99" t="n">
-        <v>527817.3</v>
+        <v>0</v>
       </c>
       <c r="M99" t="n">
         <v>0</v>
@@ -10046,10 +9750,10 @@
         <v>0</v>
       </c>
       <c r="Q99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S99" t="n">
         <v>0</v>
@@ -10070,24 +9774,21 @@
         <v>0</v>
       </c>
       <c r="Y99" t="n">
-        <v>0</v>
+        <v>0.002981657044506518</v>
       </c>
       <c r="Z99" t="n">
-        <v>0.002981657044506518</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA99" t="n">
-        <v>0.0101010101010101</v>
+        <v>16</v>
       </c>
       <c r="AB99" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AC99" t="n">
-        <v>22</v>
+        <v>20.8289017019285</v>
       </c>
       <c r="AD99" t="n">
-        <v>20.8289017019285</v>
-      </c>
-      <c r="AE99" t="n">
         <v>76.84999999999999</v>
       </c>
     </row>
@@ -10110,7 +9811,7 @@
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>30285.536239</v>
+        <v>0</v>
       </c>
       <c r="G100" t="n">
         <v>0</v>
@@ -10119,16 +9820,16 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>30285.53624</v>
       </c>
       <c r="J100" t="n">
-        <v>0</v>
+        <v>51432.35</v>
       </c>
       <c r="K100" t="n">
-        <v>51432.35</v>
+        <v>582981.8</v>
       </c>
       <c r="L100" t="n">
-        <v>582981.8</v>
+        <v>0</v>
       </c>
       <c r="M100" t="n">
         <v>0</v>
@@ -10143,10 +9844,10 @@
         <v>0</v>
       </c>
       <c r="Q100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S100" t="n">
         <v>0</v>
@@ -10167,24 +9868,21 @@
         <v>0</v>
       </c>
       <c r="Y100" t="n">
-        <v>0</v>
+        <v>0.001890622948251248</v>
       </c>
       <c r="Z100" t="n">
-        <v>0.001890622948251248</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA100" t="n">
-        <v>0.0101010101010101</v>
+        <v>17</v>
       </c>
       <c r="AB100" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AC100" t="n">
-        <v>18</v>
+        <v>20.8289017019285</v>
       </c>
       <c r="AD100" t="n">
-        <v>20.8289017019285</v>
-      </c>
-      <c r="AE100" t="n">
         <v>76.84999999999999</v>
       </c>
     </row>
@@ -10207,7 +9905,7 @@
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>38648.378712</v>
+        <v>0</v>
       </c>
       <c r="G101" t="n">
         <v>0</v>
@@ -10216,16 +9914,16 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>38648.37871</v>
       </c>
       <c r="J101" t="n">
-        <v>0</v>
+        <v>50417.72</v>
       </c>
       <c r="K101" t="n">
-        <v>50417.719999</v>
+        <v>596707.7</v>
       </c>
       <c r="L101" t="n">
-        <v>596707.7</v>
+        <v>0</v>
       </c>
       <c r="M101" t="n">
         <v>0</v>
@@ -10240,10 +9938,10 @@
         <v>0</v>
       </c>
       <c r="Q101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S101" t="n">
         <v>0</v>
@@ -10264,24 +9962,21 @@
         <v>0</v>
       </c>
       <c r="Y101" t="n">
-        <v>0</v>
+        <v>-6.482993427956871e-05</v>
       </c>
       <c r="Z101" t="n">
-        <v>-6.482993427956871e-05</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA101" t="n">
-        <v>0.0101010101010101</v>
+        <v>5</v>
       </c>
       <c r="AB101" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="AC101" t="n">
-        <v>21</v>
+        <v>20.8289017019285</v>
       </c>
       <c r="AD101" t="n">
-        <v>20.8289017019285</v>
-      </c>
-      <c r="AE101" t="n">
         <v>75.264285714</v>
       </c>
     </row>
@@ -10319,10 +10014,10 @@
         <v>0</v>
       </c>
       <c r="K102" t="n">
-        <v>0</v>
+        <v>733508.7</v>
       </c>
       <c r="L102" t="n">
-        <v>733508.7</v>
+        <v>0</v>
       </c>
       <c r="M102" t="n">
         <v>0</v>
@@ -10340,10 +10035,10 @@
         <v>0</v>
       </c>
       <c r="R102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T102" t="n">
         <v>0</v>
@@ -10361,24 +10056,21 @@
         <v>0</v>
       </c>
       <c r="Y102" t="n">
-        <v>0</v>
+        <v>0.03743306260835856</v>
       </c>
       <c r="Z102" t="n">
-        <v>0.03743306260835856</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA102" t="n">
-        <v>0.0101010101010101</v>
+        <v>44</v>
       </c>
       <c r="AB102" t="n">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="AC102" t="n">
-        <v>20</v>
+        <v>20.8289017019285</v>
       </c>
       <c r="AD102" t="n">
-        <v>20.8289017019285</v>
-      </c>
-      <c r="AE102" t="n">
         <v>72.617142857</v>
       </c>
     </row>
@@ -10401,25 +10093,25 @@
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>18869.56522</v>
       </c>
       <c r="G103" t="n">
-        <v>18869.565217391</v>
+        <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>739696</v>
       </c>
       <c r="I103" t="n">
-        <v>739696</v>
+        <v>44434.78261</v>
       </c>
       <c r="J103" t="n">
-        <v>44434.782608696</v>
+        <v>25095.76</v>
       </c>
       <c r="K103" t="n">
-        <v>25095.76</v>
+        <v>514913.8</v>
       </c>
       <c r="L103" t="n">
-        <v>514913.8</v>
+        <v>0</v>
       </c>
       <c r="M103" t="n">
         <v>0</v>
@@ -10437,10 +10129,10 @@
         <v>0</v>
       </c>
       <c r="R103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T103" t="n">
         <v>0</v>
@@ -10458,24 +10150,21 @@
         <v>0</v>
       </c>
       <c r="Y103" t="n">
-        <v>0</v>
+        <v>0.005197993886685044</v>
       </c>
       <c r="Z103" t="n">
-        <v>0.005197993886685044</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA103" t="n">
-        <v>0.0101010101010101</v>
+        <v>44</v>
       </c>
       <c r="AB103" t="n">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="AC103" t="n">
-        <v>24</v>
+        <v>20.8289017019285</v>
       </c>
       <c r="AD103" t="n">
-        <v>20.8289017019285</v>
-      </c>
-      <c r="AE103" t="n">
         <v>72.22</v>
       </c>
     </row>
@@ -10498,25 +10187,25 @@
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>18869.56522</v>
       </c>
       <c r="G104" t="n">
-        <v>18869.565217391</v>
+        <v>0</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>44434.78261</v>
       </c>
       <c r="J104" t="n">
-        <v>44434.782608696</v>
+        <v>39349.11</v>
       </c>
       <c r="K104" t="n">
-        <v>39349.109998</v>
+        <v>532294.8</v>
       </c>
       <c r="L104" t="n">
-        <v>532294.8</v>
+        <v>0</v>
       </c>
       <c r="M104" t="n">
         <v>0</v>
@@ -10534,10 +10223,10 @@
         <v>0</v>
       </c>
       <c r="R104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T104" t="n">
         <v>0</v>
@@ -10555,24 +10244,21 @@
         <v>0</v>
       </c>
       <c r="Y104" t="n">
-        <v>0</v>
+        <v>0.001983272616301942</v>
       </c>
       <c r="Z104" t="n">
-        <v>0.001983272616301942</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA104" t="n">
-        <v>0.0101010101010101</v>
+        <v>34</v>
       </c>
       <c r="AB104" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AC104" t="n">
-        <v>30</v>
+        <v>20.8289017019285</v>
       </c>
       <c r="AD104" t="n">
-        <v>20.8289017019285</v>
-      </c>
-      <c r="AE104" t="n">
         <v>72.22</v>
       </c>
     </row>
@@ -10595,25 +10281,25 @@
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>18869.56522</v>
       </c>
       <c r="G105" t="n">
-        <v>18869.565217391</v>
+        <v>0</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>44434.78261</v>
       </c>
       <c r="J105" t="n">
-        <v>44434.782608696</v>
+        <v>57194.23</v>
       </c>
       <c r="K105" t="n">
-        <v>57194.23</v>
+        <v>513392.8</v>
       </c>
       <c r="L105" t="n">
-        <v>513392.8</v>
+        <v>0</v>
       </c>
       <c r="M105" t="n">
         <v>0</v>
@@ -10631,10 +10317,10 @@
         <v>0</v>
       </c>
       <c r="R105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T105" t="n">
         <v>0</v>
@@ -10652,24 +10338,21 @@
         <v>0</v>
       </c>
       <c r="Y105" t="n">
-        <v>0</v>
+        <v>0.0001411042877328555</v>
       </c>
       <c r="Z105" t="n">
-        <v>0.0001411042877328555</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA105" t="n">
-        <v>0.0101010101010101</v>
+        <v>26</v>
       </c>
       <c r="AB105" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AC105" t="n">
-        <v>28</v>
+        <v>20.8289017019285</v>
       </c>
       <c r="AD105" t="n">
-        <v>20.8289017019285</v>
-      </c>
-      <c r="AE105" t="n">
         <v>51.85</v>
       </c>
     </row>
@@ -10692,25 +10375,25 @@
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>5391.304348</v>
       </c>
       <c r="G106" t="n">
-        <v>5391.304347826</v>
+        <v>0</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>12695.65217</v>
       </c>
       <c r="J106" t="n">
-        <v>12695.652173913</v>
+        <v>18719.19</v>
       </c>
       <c r="K106" t="n">
-        <v>18719.190003</v>
+        <v>511679.4</v>
       </c>
       <c r="L106" t="n">
-        <v>511679.4</v>
+        <v>0</v>
       </c>
       <c r="M106" t="n">
         <v>0</v>
@@ -10731,10 +10414,10 @@
         <v>0</v>
       </c>
       <c r="S106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U106" t="n">
         <v>0</v>
@@ -10749,24 +10432,21 @@
         <v>0</v>
       </c>
       <c r="Y106" t="n">
-        <v>0</v>
+        <v>0.0002904243942506539</v>
       </c>
       <c r="Z106" t="n">
-        <v>0.0002904243942506539</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA106" t="n">
-        <v>0.0101010101010101</v>
+        <v>24</v>
       </c>
       <c r="AB106" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="AC106" t="n">
-        <v>31</v>
+        <v>20.8289017019285</v>
       </c>
       <c r="AD106" t="n">
-        <v>20.8289017019285</v>
-      </c>
-      <c r="AE106" t="n">
         <v>51.85</v>
       </c>
     </row>
@@ -10795,19 +10475,19 @@
         <v>0</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>209831</v>
       </c>
       <c r="I107" t="n">
-        <v>209831</v>
+        <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>0</v>
+        <v>876.54</v>
       </c>
       <c r="K107" t="n">
-        <v>876.54</v>
+        <v>546911.8</v>
       </c>
       <c r="L107" t="n">
-        <v>546911.8</v>
+        <v>0</v>
       </c>
       <c r="M107" t="n">
         <v>0</v>
@@ -10828,10 +10508,10 @@
         <v>0</v>
       </c>
       <c r="S107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U107" t="n">
         <v>0</v>
@@ -10846,24 +10526,21 @@
         <v>0</v>
       </c>
       <c r="Y107" t="n">
-        <v>0</v>
+        <v>-0.0008273607067611426</v>
       </c>
       <c r="Z107" t="n">
-        <v>-0.0008273607067611426</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA107" t="n">
-        <v>0.0101010101010101</v>
+        <v>15</v>
       </c>
       <c r="AB107" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="AC107" t="n">
-        <v>27</v>
+        <v>20.8289017019285</v>
       </c>
       <c r="AD107" t="n">
-        <v>20.8289017019285</v>
-      </c>
-      <c r="AE107" t="n">
         <v>50.264285714</v>
       </c>
     </row>
@@ -10886,25 +10563,25 @@
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="G108" t="n">
-        <v>6600</v>
+        <v>0</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="I108" t="n">
-        <v>50000</v>
+        <v>19200</v>
       </c>
       <c r="J108" t="n">
-        <v>19200</v>
+        <v>12120</v>
       </c>
       <c r="K108" t="n">
-        <v>12119.999999</v>
+        <v>527677.9</v>
       </c>
       <c r="L108" t="n">
-        <v>527677.9</v>
+        <v>0</v>
       </c>
       <c r="M108" t="n">
         <v>0</v>
@@ -10925,10 +10602,10 @@
         <v>0</v>
       </c>
       <c r="S108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U108" t="n">
         <v>0</v>
@@ -10943,24 +10620,21 @@
         <v>0</v>
       </c>
       <c r="Y108" t="n">
-        <v>0</v>
+        <v>-0.001414245312102238</v>
       </c>
       <c r="Z108" t="n">
-        <v>-0.001414245312102238</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA108" t="n">
-        <v>0.0101010101010101</v>
+        <v>3</v>
       </c>
       <c r="AB108" t="n">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="AC108" t="n">
-        <v>33</v>
+        <v>20.8289017019285</v>
       </c>
       <c r="AD108" t="n">
-        <v>20.8289017019285</v>
-      </c>
-      <c r="AE108" t="n">
         <v>46.3</v>
       </c>
     </row>
@@ -10983,25 +10657,25 @@
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>5081.32</v>
+        <v>6600</v>
       </c>
       <c r="G109" t="n">
-        <v>6600</v>
+        <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>222411</v>
       </c>
       <c r="I109" t="n">
-        <v>222411</v>
+        <v>24281.32</v>
       </c>
       <c r="J109" t="n">
-        <v>19200</v>
+        <v>20202.56</v>
       </c>
       <c r="K109" t="n">
-        <v>20202.560002</v>
+        <v>527123.1</v>
       </c>
       <c r="L109" t="n">
-        <v>527123.1</v>
+        <v>0</v>
       </c>
       <c r="M109" t="n">
         <v>0</v>
@@ -11022,10 +10696,10 @@
         <v>0</v>
       </c>
       <c r="S109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U109" t="n">
         <v>0</v>
@@ -11040,24 +10714,21 @@
         <v>0</v>
       </c>
       <c r="Y109" t="n">
-        <v>0</v>
+        <v>-0.0007213864818561709</v>
       </c>
       <c r="Z109" t="n">
-        <v>-0.0007213864818561709</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA109" t="n">
-        <v>0.0101010101010101</v>
+        <v>7</v>
       </c>
       <c r="AB109" t="n">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AC109" t="n">
-        <v>35</v>
+        <v>20.8289017019285</v>
       </c>
       <c r="AD109" t="n">
-        <v>20.8289017019285</v>
-      </c>
-      <c r="AE109" t="n">
         <v>46.3</v>
       </c>
     </row>
@@ -11080,25 +10751,25 @@
         <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>5347.14</v>
+        <v>6600</v>
       </c>
       <c r="G110" t="n">
-        <v>6600</v>
+        <v>0</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>367091</v>
       </c>
       <c r="I110" t="n">
-        <v>367091</v>
+        <v>24547.14</v>
       </c>
       <c r="J110" t="n">
-        <v>19200</v>
+        <v>21347.28</v>
       </c>
       <c r="K110" t="n">
-        <v>21347.28</v>
+        <v>615571.4</v>
       </c>
       <c r="L110" t="n">
-        <v>615571.4</v>
+        <v>0</v>
       </c>
       <c r="M110" t="n">
         <v>0</v>
@@ -11119,10 +10790,10 @@
         <v>0</v>
       </c>
       <c r="S110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U110" t="n">
         <v>0</v>
@@ -11137,24 +10808,21 @@
         <v>0</v>
       </c>
       <c r="Y110" t="n">
-        <v>0</v>
+        <v>0.004376896017556402</v>
       </c>
       <c r="Z110" t="n">
-        <v>0.004376896017556402</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA110" t="n">
-        <v>0.0101010101010101</v>
+        <v>42</v>
       </c>
       <c r="AB110" t="n">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="AC110" t="n">
-        <v>31</v>
+        <v>20.8289017019285</v>
       </c>
       <c r="AD110" t="n">
-        <v>20.8289017019285</v>
-      </c>
-      <c r="AE110" t="n">
         <v>46.3</v>
       </c>
     </row>
@@ -11177,25 +10845,25 @@
         <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>4885.61</v>
+        <v>6600</v>
       </c>
       <c r="G111" t="n">
-        <v>6600</v>
+        <v>0</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>24085.61</v>
       </c>
       <c r="J111" t="n">
-        <v>19200</v>
+        <v>21790.69001</v>
       </c>
       <c r="K111" t="n">
-        <v>21790.690005</v>
+        <v>630612.4</v>
       </c>
       <c r="L111" t="n">
-        <v>630612.4</v>
+        <v>0</v>
       </c>
       <c r="M111" t="n">
         <v>0</v>
@@ -11219,10 +10887,10 @@
         <v>0</v>
       </c>
       <c r="T111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V111" t="n">
         <v>0</v>
@@ -11234,24 +10902,21 @@
         <v>0</v>
       </c>
       <c r="Y111" t="n">
-        <v>0</v>
+        <v>0.002639431139571133</v>
       </c>
       <c r="Z111" t="n">
-        <v>0.002639431139571133</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA111" t="n">
-        <v>0.0101010101010101</v>
+        <v>38</v>
       </c>
       <c r="AB111" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AC111" t="n">
-        <v>34</v>
+        <v>20.8289017019285</v>
       </c>
       <c r="AD111" t="n">
-        <v>20.8289017019285</v>
-      </c>
-      <c r="AE111" t="n">
         <v>46.3</v>
       </c>
     </row>
@@ -11274,25 +10939,25 @@
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>4685.71</v>
+        <v>6600</v>
       </c>
       <c r="G112" t="n">
-        <v>6600</v>
+        <v>0</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>23885.71</v>
       </c>
       <c r="J112" t="n">
-        <v>19200</v>
+        <v>21641.53</v>
       </c>
       <c r="K112" t="n">
-        <v>21641.53</v>
+        <v>601228.1</v>
       </c>
       <c r="L112" t="n">
-        <v>601228.1</v>
+        <v>0</v>
       </c>
       <c r="M112" t="n">
         <v>0</v>
@@ -11316,10 +10981,10 @@
         <v>0</v>
       </c>
       <c r="T112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V112" t="n">
         <v>0</v>
@@ -11331,24 +10996,21 @@
         <v>0</v>
       </c>
       <c r="Y112" t="n">
-        <v>0</v>
+        <v>0.0007634974224028804</v>
       </c>
       <c r="Z112" t="n">
-        <v>0.0007634974224028804</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA112" t="n">
-        <v>0.0101010101010101</v>
+        <v>31</v>
       </c>
       <c r="AB112" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="AC112" t="n">
-        <v>39</v>
+        <v>20.8289017019285</v>
       </c>
       <c r="AD112" t="n">
-        <v>20.8289017019285</v>
-      </c>
-      <c r="AE112" t="n">
         <v>47.092857143</v>
       </c>
     </row>
@@ -11383,13 +11045,13 @@
         <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>0</v>
+        <v>396.06</v>
       </c>
       <c r="K113" t="n">
-        <v>396.06</v>
+        <v>551022</v>
       </c>
       <c r="L113" t="n">
-        <v>551022</v>
+        <v>0</v>
       </c>
       <c r="M113" t="n">
         <v>0</v>
@@ -11413,10 +11075,10 @@
         <v>0</v>
       </c>
       <c r="T113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V113" t="n">
         <v>0</v>
@@ -11428,24 +11090,21 @@
         <v>0</v>
       </c>
       <c r="Y113" t="n">
-        <v>0</v>
+        <v>0.002503560850889579</v>
       </c>
       <c r="Z113" t="n">
-        <v>0.002503560850889579</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA113" t="n">
-        <v>0.0101010101010101</v>
+        <v>28</v>
       </c>
       <c r="AB113" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AC113" t="n">
-        <v>30</v>
+        <v>20.8289017019285</v>
       </c>
       <c r="AD113" t="n">
-        <v>20.8289017019285</v>
-      </c>
-      <c r="AE113" t="n">
         <v>48.15</v>
       </c>
     </row>
@@ -11474,19 +11133,19 @@
         <v>0</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>65134</v>
       </c>
       <c r="I114" t="n">
-        <v>65134</v>
+        <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>0</v>
+        <v>1984.41</v>
       </c>
       <c r="K114" t="n">
-        <v>1984.41</v>
+        <v>488266.3</v>
       </c>
       <c r="L114" t="n">
-        <v>488266.3</v>
+        <v>0</v>
       </c>
       <c r="M114" t="n">
         <v>0</v>
@@ -11510,10 +11169,10 @@
         <v>0</v>
       </c>
       <c r="T114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V114" t="n">
         <v>0</v>
@@ -11525,24 +11184,21 @@
         <v>0</v>
       </c>
       <c r="Y114" t="n">
-        <v>0</v>
+        <v>0.005358659026915535</v>
       </c>
       <c r="Z114" t="n">
-        <v>0.005358659026915535</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA114" t="n">
-        <v>0.0101010101010101</v>
+        <v>13</v>
       </c>
       <c r="AB114" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="AC114" t="n">
-        <v>25</v>
+        <v>20.8289017019285</v>
       </c>
       <c r="AD114" t="n">
-        <v>20.8289017019285</v>
-      </c>
-      <c r="AE114" t="n">
         <v>48.15</v>
       </c>
     </row>
@@ -11577,13 +11233,13 @@
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>0</v>
+        <v>1483.53</v>
       </c>
       <c r="K115" t="n">
-        <v>1483.53</v>
+        <v>454703.6</v>
       </c>
       <c r="L115" t="n">
-        <v>454703.6</v>
+        <v>0</v>
       </c>
       <c r="M115" t="n">
         <v>0</v>
@@ -11610,10 +11266,10 @@
         <v>0</v>
       </c>
       <c r="U115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W115" t="n">
         <v>0</v>
@@ -11622,24 +11278,21 @@
         <v>0</v>
       </c>
       <c r="Y115" t="n">
-        <v>0</v>
+        <v>0.002284018263936385</v>
       </c>
       <c r="Z115" t="n">
-        <v>0.002284018263936385</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA115" t="n">
-        <v>0.0101010101010101</v>
+        <v>17</v>
       </c>
       <c r="AB115" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="AC115" t="n">
-        <v>30</v>
+        <v>20.8289017019285</v>
       </c>
       <c r="AD115" t="n">
-        <v>20.8289017019285</v>
-      </c>
-      <c r="AE115" t="n">
         <v>48.015714286</v>
       </c>
     </row>
@@ -11677,10 +11330,10 @@
         <v>0</v>
       </c>
       <c r="K116" t="n">
-        <v>0</v>
+        <v>453755.1</v>
       </c>
       <c r="L116" t="n">
-        <v>453755.1</v>
+        <v>0</v>
       </c>
       <c r="M116" t="n">
         <v>0</v>
@@ -11707,10 +11360,10 @@
         <v>0</v>
       </c>
       <c r="U116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W116" t="n">
         <v>0</v>
@@ -11719,24 +11372,21 @@
         <v>0</v>
       </c>
       <c r="Y116" t="n">
-        <v>0</v>
+        <v>0.00240019628538921</v>
       </c>
       <c r="Z116" t="n">
-        <v>0.00240019628538921</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA116" t="n">
-        <v>0.0101010101010101</v>
+        <v>24</v>
       </c>
       <c r="AB116" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AC116" t="n">
-        <v>28</v>
+        <v>20.8289017019285</v>
       </c>
       <c r="AD116" t="n">
-        <v>20.8289017019285</v>
-      </c>
-      <c r="AE116" t="n">
         <v>48.61</v>
       </c>
     </row>
@@ -11771,13 +11421,13 @@
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>0</v>
+        <v>632</v>
       </c>
       <c r="K117" t="n">
-        <v>632</v>
+        <v>515008.1</v>
       </c>
       <c r="L117" t="n">
-        <v>515008.1</v>
+        <v>0</v>
       </c>
       <c r="M117" t="n">
         <v>0</v>
@@ -11804,10 +11454,10 @@
         <v>0</v>
       </c>
       <c r="U117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W117" t="n">
         <v>0</v>
@@ -11816,24 +11466,21 @@
         <v>0</v>
       </c>
       <c r="Y117" t="n">
-        <v>0</v>
+        <v>0.02004738767318043</v>
       </c>
       <c r="Z117" t="n">
-        <v>0.02004738767318043</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA117" t="n">
-        <v>0.0101010101010101</v>
+        <v>37</v>
       </c>
       <c r="AB117" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="AC117" t="n">
-        <v>27</v>
+        <v>20.8289017019285</v>
       </c>
       <c r="AD117" t="n">
-        <v>20.8289017019285</v>
-      </c>
-      <c r="AE117" t="n">
         <v>48.61</v>
       </c>
     </row>
@@ -11871,10 +11518,10 @@
         <v>0</v>
       </c>
       <c r="K118" t="n">
-        <v>0</v>
+        <v>565533.8</v>
       </c>
       <c r="L118" t="n">
-        <v>565533.8</v>
+        <v>0</v>
       </c>
       <c r="M118" t="n">
         <v>0</v>
@@ -11901,10 +11548,10 @@
         <v>0</v>
       </c>
       <c r="U118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W118" t="n">
         <v>0</v>
@@ -11913,24 +11560,21 @@
         <v>0</v>
       </c>
       <c r="Y118" t="n">
-        <v>0</v>
+        <v>0.02484160924992753</v>
       </c>
       <c r="Z118" t="n">
-        <v>0.02484160924992753</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA118" t="n">
-        <v>0.0101010101010101</v>
+        <v>48</v>
       </c>
       <c r="AB118" t="n">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="AC118" t="n">
-        <v>27</v>
+        <v>20.8289017019285</v>
       </c>
       <c r="AD118" t="n">
-        <v>20.8289017019285</v>
-      </c>
-      <c r="AE118" t="n">
         <v>47.818571429</v>
       </c>
     </row>
@@ -11968,10 +11612,10 @@
         <v>0</v>
       </c>
       <c r="K119" t="n">
-        <v>0</v>
+        <v>411778</v>
       </c>
       <c r="L119" t="n">
-        <v>411778</v>
+        <v>0</v>
       </c>
       <c r="M119" t="n">
         <v>0</v>
@@ -11998,10 +11642,10 @@
         <v>0</v>
       </c>
       <c r="U119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W119" t="n">
         <v>0</v>
@@ -12010,24 +11654,21 @@
         <v>0</v>
       </c>
       <c r="Y119" t="n">
-        <v>0</v>
+        <v>0.006341762531922348</v>
       </c>
       <c r="Z119" t="n">
-        <v>0.006341762531922348</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA119" t="n">
-        <v>0.0101010101010101</v>
+        <v>24</v>
       </c>
       <c r="AB119" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="AC119" t="n">
-        <v>34</v>
+        <v>20.8289017019285</v>
       </c>
       <c r="AD119" t="n">
-        <v>20.8289017019285</v>
-      </c>
-      <c r="AE119" t="n">
         <v>49.54</v>
       </c>
     </row>
@@ -12065,10 +11706,10 @@
         <v>0</v>
       </c>
       <c r="K120" t="n">
-        <v>0</v>
+        <v>395512.6</v>
       </c>
       <c r="L120" t="n">
-        <v>395512.6</v>
+        <v>0</v>
       </c>
       <c r="M120" t="n">
         <v>0</v>
@@ -12098,33 +11739,30 @@
         <v>0</v>
       </c>
       <c r="V120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X120" t="n">
         <v>0</v>
       </c>
       <c r="Y120" t="n">
-        <v>0</v>
+        <v>0.004039360578522472</v>
       </c>
       <c r="Z120" t="n">
-        <v>0.004039360578522472</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA120" t="n">
-        <v>0.0101010101010101</v>
+        <v>17</v>
       </c>
       <c r="AB120" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AC120" t="n">
-        <v>25</v>
+        <v>20.8289017019285</v>
       </c>
       <c r="AD120" t="n">
-        <v>20.8289017019285</v>
-      </c>
-      <c r="AE120" t="n">
         <v>47.951428571</v>
       </c>
     </row>
@@ -12162,10 +11800,10 @@
         <v>0</v>
       </c>
       <c r="K121" t="n">
-        <v>0</v>
+        <v>385651.6</v>
       </c>
       <c r="L121" t="n">
-        <v>385651.6</v>
+        <v>0</v>
       </c>
       <c r="M121" t="n">
         <v>0</v>
@@ -12195,33 +11833,30 @@
         <v>0</v>
       </c>
       <c r="V121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X121" t="n">
         <v>0</v>
       </c>
       <c r="Y121" t="n">
-        <v>0</v>
+        <v>0.003742992946637556</v>
       </c>
       <c r="Z121" t="n">
-        <v>0.003742992946637556</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA121" t="n">
-        <v>0.0101010101010101</v>
+        <v>13</v>
       </c>
       <c r="AB121" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="AC121" t="n">
-        <v>27</v>
+        <v>20.8289017019285</v>
       </c>
       <c r="AD121" t="n">
-        <v>20.8289017019285</v>
-      </c>
-      <c r="AE121" t="n">
         <v>45.568571429</v>
       </c>
     </row>
@@ -12259,10 +11894,10 @@
         <v>0</v>
       </c>
       <c r="K122" t="n">
-        <v>0</v>
+        <v>490633.6</v>
       </c>
       <c r="L122" t="n">
-        <v>490633.6</v>
+        <v>0</v>
       </c>
       <c r="M122" t="n">
         <v>0</v>
@@ -12292,33 +11927,30 @@
         <v>0</v>
       </c>
       <c r="V122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X122" t="n">
         <v>0</v>
       </c>
       <c r="Y122" t="n">
-        <v>0</v>
+        <v>0.008440493188665873</v>
       </c>
       <c r="Z122" t="n">
-        <v>0.008440493188665873</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA122" t="n">
-        <v>0.0101010101010101</v>
+        <v>28</v>
       </c>
       <c r="AB122" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="AC122" t="n">
-        <v>20</v>
+        <v>20.8289017019285</v>
       </c>
       <c r="AD122" t="n">
-        <v>20.8289017019285</v>
-      </c>
-      <c r="AE122" t="n">
         <v>49.54</v>
       </c>
     </row>
@@ -12356,10 +11988,10 @@
         <v>0</v>
       </c>
       <c r="K123" t="n">
-        <v>0</v>
+        <v>423956.8</v>
       </c>
       <c r="L123" t="n">
-        <v>423956.8</v>
+        <v>0</v>
       </c>
       <c r="M123" t="n">
         <v>0</v>
@@ -12389,33 +12021,30 @@
         <v>0</v>
       </c>
       <c r="V123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X123" t="n">
         <v>0</v>
       </c>
       <c r="Y123" t="n">
-        <v>0</v>
+        <v>0.01991904741416087</v>
       </c>
       <c r="Z123" t="n">
-        <v>0.01991904741416087</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA123" t="n">
-        <v>0.0101010101010101</v>
+        <v>18</v>
       </c>
       <c r="AB123" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AC123" t="n">
-        <v>17</v>
+        <v>20.8289017019285</v>
       </c>
       <c r="AD123" t="n">
-        <v>20.8289017019285</v>
-      </c>
-      <c r="AE123" t="n">
         <v>62.037142857</v>
       </c>
     </row>
@@ -12453,10 +12082,10 @@
         <v>0</v>
       </c>
       <c r="K124" t="n">
-        <v>0</v>
+        <v>404334.2</v>
       </c>
       <c r="L124" t="n">
-        <v>404334.2</v>
+        <v>0</v>
       </c>
       <c r="M124" t="n">
         <v>0</v>
@@ -12489,30 +12118,27 @@
         <v>0</v>
       </c>
       <c r="W124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y124" t="n">
-        <v>0</v>
+        <v>0.02572893309590481</v>
       </c>
       <c r="Z124" t="n">
-        <v>0.02572893309590481</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA124" t="n">
-        <v>0.0101010101010101</v>
+        <v>26</v>
       </c>
       <c r="AB124" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="AC124" t="n">
-        <v>18</v>
+        <v>20.8289017019285</v>
       </c>
       <c r="AD124" t="n">
-        <v>20.8289017019285</v>
-      </c>
-      <c r="AE124" t="n">
         <v>78.7</v>
       </c>
     </row>
@@ -12550,10 +12176,10 @@
         <v>0</v>
       </c>
       <c r="K125" t="n">
-        <v>0</v>
+        <v>382457.4</v>
       </c>
       <c r="L125" t="n">
-        <v>382457.4</v>
+        <v>0</v>
       </c>
       <c r="M125" t="n">
         <v>0</v>
@@ -12586,30 +12212,27 @@
         <v>0</v>
       </c>
       <c r="W125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y125" t="n">
-        <v>0</v>
+        <v>0.01992083323778775</v>
       </c>
       <c r="Z125" t="n">
-        <v>0.01992083323778775</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA125" t="n">
-        <v>0.0101010101010101</v>
+        <v>16</v>
       </c>
       <c r="AB125" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AC125" t="n">
-        <v>19</v>
+        <v>20.8289017019285</v>
       </c>
       <c r="AD125" t="n">
-        <v>20.8289017019285</v>
-      </c>
-      <c r="AE125" t="n">
         <v>78.7</v>
       </c>
     </row>
@@ -12647,10 +12270,10 @@
         <v>0</v>
       </c>
       <c r="K126" t="n">
-        <v>0</v>
+        <v>391297.3</v>
       </c>
       <c r="L126" t="n">
-        <v>391297.3</v>
+        <v>0</v>
       </c>
       <c r="M126" t="n">
         <v>0</v>
@@ -12683,30 +12306,27 @@
         <v>0</v>
       </c>
       <c r="W126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y126" t="n">
-        <v>0</v>
+        <v>0.005286479339530283</v>
       </c>
       <c r="Z126" t="n">
-        <v>0.005286479339530283</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA126" t="n">
-        <v>0.0101010101010101</v>
+        <v>32</v>
       </c>
       <c r="AB126" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="AC126" t="n">
-        <v>19</v>
+        <v>20.8289017019285</v>
       </c>
       <c r="AD126" t="n">
-        <v>20.8289017019285</v>
-      </c>
-      <c r="AE126" t="n">
         <v>78.7</v>
       </c>
     </row>
@@ -12741,13 +12361,13 @@
         <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>0</v>
+        <v>5689.999999</v>
       </c>
       <c r="K127" t="n">
-        <v>5689.999999</v>
+        <v>395893.2</v>
       </c>
       <c r="L127" t="n">
-        <v>395893.2</v>
+        <v>0</v>
       </c>
       <c r="M127" t="n">
         <v>0</v>
@@ -12780,30 +12400,27 @@
         <v>0</v>
       </c>
       <c r="W127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y127" t="n">
-        <v>0</v>
+        <v>0.005556197629816253</v>
       </c>
       <c r="Z127" t="n">
-        <v>0.005556197629816253</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA127" t="n">
-        <v>0.0101010101010101</v>
+        <v>32</v>
       </c>
       <c r="AB127" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AC127" t="n">
-        <v>23</v>
+        <v>20.8289017019285</v>
       </c>
       <c r="AD127" t="n">
-        <v>20.8289017019285</v>
-      </c>
-      <c r="AE127" t="n">
         <v>77.642857143</v>
       </c>
     </row>
@@ -12838,13 +12455,13 @@
         <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>0</v>
+        <v>11554.86</v>
       </c>
       <c r="K128" t="n">
-        <v>11554.860002</v>
+        <v>478094.7</v>
       </c>
       <c r="L128" t="n">
-        <v>478094.7</v>
+        <v>0</v>
       </c>
       <c r="M128" t="n">
         <v>0</v>
@@ -12880,27 +12497,24 @@
         <v>0</v>
       </c>
       <c r="X128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y128" t="n">
-        <v>1</v>
+        <v>0.01233426019797245</v>
       </c>
       <c r="Z128" t="n">
-        <v>0.01233426019797245</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA128" t="n">
-        <v>0.0101010101010101</v>
+        <v>53</v>
       </c>
       <c r="AB128" t="n">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="AC128" t="n">
-        <v>23</v>
+        <v>20.8289017019285</v>
       </c>
       <c r="AD128" t="n">
-        <v>20.8289017019285</v>
-      </c>
-      <c r="AE128" t="n">
         <v>75</v>
       </c>
     </row>
@@ -12935,13 +12549,13 @@
         <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>0</v>
+        <v>14171.02</v>
       </c>
       <c r="K129" t="n">
-        <v>14171.019999</v>
+        <v>421816.6</v>
       </c>
       <c r="L129" t="n">
-        <v>421816.6</v>
+        <v>0</v>
       </c>
       <c r="M129" t="n">
         <v>0</v>
@@ -12977,27 +12591,24 @@
         <v>0</v>
       </c>
       <c r="X129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y129" t="n">
-        <v>1</v>
+        <v>0.008415870828738934</v>
       </c>
       <c r="Z129" t="n">
-        <v>0.008415870828738934</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA129" t="n">
-        <v>0.0101010101010101</v>
+        <v>43</v>
       </c>
       <c r="AB129" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="AC129" t="n">
-        <v>29</v>
+        <v>20.8289017019285</v>
       </c>
       <c r="AD129" t="n">
-        <v>20.8289017019285</v>
-      </c>
-      <c r="AE129" t="n">
         <v>75</v>
       </c>
     </row>
@@ -13032,13 +12643,13 @@
         <v>0</v>
       </c>
       <c r="J130" t="n">
-        <v>0</v>
+        <v>17484.11</v>
       </c>
       <c r="K130" t="n">
-        <v>17484.110001</v>
+        <v>517011</v>
       </c>
       <c r="L130" t="n">
-        <v>517011</v>
+        <v>0</v>
       </c>
       <c r="M130" t="n">
         <v>0</v>
@@ -13074,27 +12685,24 @@
         <v>0</v>
       </c>
       <c r="X130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y130" t="n">
-        <v>1</v>
+        <v>0.009680382819717856</v>
       </c>
       <c r="Z130" t="n">
-        <v>0.009680382819717856</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA130" t="n">
-        <v>0.0101010101010101</v>
+        <v>71</v>
       </c>
       <c r="AB130" t="n">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="AC130" t="n">
-        <v>27</v>
+        <v>20.8289017019285</v>
       </c>
       <c r="AD130" t="n">
-        <v>20.8289017019285</v>
-      </c>
-      <c r="AE130" t="n">
         <v>65.477142857</v>
       </c>
     </row>
@@ -13132,10 +12740,10 @@
         <v>0</v>
       </c>
       <c r="K131" t="n">
-        <v>0</v>
+        <v>603220.1</v>
       </c>
       <c r="L131" t="n">
-        <v>603220.1</v>
+        <v>0</v>
       </c>
       <c r="M131" t="n">
         <v>0</v>
@@ -13171,27 +12779,24 @@
         <v>0</v>
       </c>
       <c r="X131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y131" t="n">
-        <v>1</v>
+        <v>0.01147904732748661</v>
       </c>
       <c r="Z131" t="n">
-        <v>0.01147904732748661</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA131" t="n">
-        <v>0.0101010101010101</v>
+        <v>75</v>
       </c>
       <c r="AB131" t="n">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="AC131" t="n">
-        <v>33</v>
+        <v>20.8289017019285</v>
       </c>
       <c r="AD131" t="n">
-        <v>20.8289017019285</v>
-      </c>
-      <c r="AE131" t="n">
         <v>63.89</v>
       </c>
     </row>
@@ -13229,13 +12834,13 @@
         <v>0</v>
       </c>
       <c r="K132" t="n">
-        <v>0</v>
+        <v>460735.3</v>
       </c>
       <c r="L132" t="n">
-        <v>460735.3</v>
+        <v>1</v>
       </c>
       <c r="M132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N132" t="n">
         <v>0</v>
@@ -13268,27 +12873,24 @@
         <v>0</v>
       </c>
       <c r="X132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y132" t="n">
-        <v>1</v>
+        <v>0.006436357158480325</v>
       </c>
       <c r="Z132" t="n">
-        <v>0.006436357158480325</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA132" t="n">
-        <v>0.0101010101010101</v>
+        <v>22</v>
       </c>
       <c r="AB132" t="n">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="AC132" t="n">
-        <v>37</v>
+        <v>20.8289017019285</v>
       </c>
       <c r="AD132" t="n">
-        <v>20.8289017019285</v>
-      </c>
-      <c r="AE132" t="n">
         <v>63.89</v>
       </c>
     </row>
@@ -13326,16 +12928,16 @@
         <v>0</v>
       </c>
       <c r="K133" t="n">
-        <v>0</v>
+        <v>376291.3</v>
       </c>
       <c r="L133" t="n">
-        <v>376291.3</v>
+        <v>0</v>
       </c>
       <c r="M133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O133" t="n">
         <v>0</v>
@@ -13368,24 +12970,21 @@
         <v>0</v>
       </c>
       <c r="Y133" t="n">
-        <v>0</v>
+        <v>0.005210144203667675</v>
       </c>
       <c r="Z133" t="n">
-        <v>0.005210144203667675</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA133" t="n">
-        <v>0.0101010101010101</v>
+        <v>27</v>
       </c>
       <c r="AB133" t="n">
         <v>27</v>
       </c>
       <c r="AC133" t="n">
-        <v>27</v>
+        <v>20.82675467244893</v>
       </c>
       <c r="AD133" t="n">
-        <v>20.82675467244893</v>
-      </c>
-      <c r="AE133" t="n">
         <v>63.89</v>
       </c>
     </row>
@@ -13423,16 +13022,16 @@
         <v>0</v>
       </c>
       <c r="K134" t="n">
-        <v>0</v>
+        <v>550528.5</v>
       </c>
       <c r="L134" t="n">
-        <v>550528.5</v>
+        <v>0</v>
       </c>
       <c r="M134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O134" t="n">
         <v>0</v>
@@ -13465,24 +13064,21 @@
         <v>0</v>
       </c>
       <c r="Y134" t="n">
-        <v>0</v>
+        <v>0.03332145399187561</v>
       </c>
       <c r="Z134" t="n">
-        <v>0.03332145399187561</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA134" t="n">
-        <v>0.0101010101010101</v>
+        <v>36</v>
       </c>
       <c r="AB134" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="AC134" t="n">
-        <v>24</v>
+        <v>20.82675467244893</v>
       </c>
       <c r="AD134" t="n">
-        <v>20.82675467244893</v>
-      </c>
-      <c r="AE134" t="n">
         <v>63.89</v>
       </c>
     </row>
@@ -13520,16 +13116,16 @@
         <v>0</v>
       </c>
       <c r="K135" t="n">
-        <v>0</v>
+        <v>391111.4</v>
       </c>
       <c r="L135" t="n">
-        <v>391111.4</v>
+        <v>0</v>
       </c>
       <c r="M135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O135" t="n">
         <v>0</v>
@@ -13562,24 +13158,21 @@
         <v>0</v>
       </c>
       <c r="Y135" t="n">
-        <v>0</v>
+        <v>0.01947487679103742</v>
       </c>
       <c r="Z135" t="n">
-        <v>0.01947487679103742</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA135" t="n">
-        <v>0.0101010101010101</v>
+        <v>16</v>
       </c>
       <c r="AB135" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AC135" t="n">
-        <v>25</v>
+        <v>20.82675467244893</v>
       </c>
       <c r="AD135" t="n">
-        <v>20.82675467244893</v>
-      </c>
-      <c r="AE135" t="n">
         <v>63.89</v>
       </c>
     </row>
@@ -13617,16 +13210,16 @@
         <v>0</v>
       </c>
       <c r="K136" t="n">
-        <v>0</v>
+        <v>390483.2</v>
       </c>
       <c r="L136" t="n">
-        <v>390483.2</v>
+        <v>0</v>
       </c>
       <c r="M136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O136" t="n">
         <v>0</v>
@@ -13659,24 +13252,21 @@
         <v>0</v>
       </c>
       <c r="Y136" t="n">
-        <v>0</v>
+        <v>0.004663629770938988</v>
       </c>
       <c r="Z136" t="n">
-        <v>0.004663629770938988</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA136" t="n">
-        <v>0.0101010101010101</v>
+        <v>23</v>
       </c>
       <c r="AB136" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AC136" t="n">
-        <v>20</v>
+        <v>20.82675467244893</v>
       </c>
       <c r="AD136" t="n">
-        <v>20.82675467244893</v>
-      </c>
-      <c r="AE136" t="n">
         <v>63.89</v>
       </c>
     </row>
@@ -13714,19 +13304,19 @@
         <v>0</v>
       </c>
       <c r="K137" t="n">
-        <v>0</v>
+        <v>373968.8</v>
       </c>
       <c r="L137" t="n">
-        <v>373968.8</v>
+        <v>0</v>
       </c>
       <c r="M137" t="n">
         <v>0</v>
       </c>
       <c r="N137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P137" t="n">
         <v>0</v>
@@ -13756,24 +13346,21 @@
         <v>0</v>
       </c>
       <c r="Y137" t="n">
-        <v>0</v>
+        <v>0.0005189010792343414</v>
       </c>
       <c r="Z137" t="n">
-        <v>0.0005189010792343414</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA137" t="n">
-        <v>0.0101010101010101</v>
+        <v>20</v>
       </c>
       <c r="AB137" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AC137" t="n">
-        <v>22</v>
+        <v>20.82675467244893</v>
       </c>
       <c r="AD137" t="n">
-        <v>20.82675467244893</v>
-      </c>
-      <c r="AE137" t="n">
         <v>63.89</v>
       </c>
     </row>
@@ -13811,19 +13398,19 @@
         <v>0</v>
       </c>
       <c r="K138" t="n">
-        <v>0</v>
+        <v>456412.1</v>
       </c>
       <c r="L138" t="n">
-        <v>456412.1</v>
+        <v>0</v>
       </c>
       <c r="M138" t="n">
         <v>0</v>
       </c>
       <c r="N138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P138" t="n">
         <v>0</v>
@@ -13853,24 +13440,21 @@
         <v>0</v>
       </c>
       <c r="Y138" t="n">
-        <v>0</v>
+        <v>0.02013964665953423</v>
       </c>
       <c r="Z138" t="n">
-        <v>0.02013964665953423</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA138" t="n">
-        <v>0.0101010101010101</v>
+        <v>13</v>
       </c>
       <c r="AB138" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AC138" t="n">
-        <v>21</v>
+        <v>20.82675467244893</v>
       </c>
       <c r="AD138" t="n">
-        <v>20.82675467244893</v>
-      </c>
-      <c r="AE138" t="n">
         <v>60.19</v>
       </c>
     </row>
@@ -13908,19 +13492,19 @@
         <v>0</v>
       </c>
       <c r="K139" t="n">
-        <v>0</v>
+        <v>412839.6</v>
       </c>
       <c r="L139" t="n">
-        <v>412839.6</v>
+        <v>0</v>
       </c>
       <c r="M139" t="n">
         <v>0</v>
       </c>
       <c r="N139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P139" t="n">
         <v>0</v>
@@ -13950,24 +13534,21 @@
         <v>0</v>
       </c>
       <c r="Y139" t="n">
-        <v>0</v>
+        <v>0.01461959034616894</v>
       </c>
       <c r="Z139" t="n">
-        <v>0.01461959034616894</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA139" t="n">
-        <v>0.0101010101010101</v>
+        <v>13</v>
       </c>
       <c r="AB139" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="AC139" t="n">
-        <v>22</v>
+        <v>20.82675467244893</v>
       </c>
       <c r="AD139" t="n">
-        <v>20.82675467244893</v>
-      </c>
-      <c r="AE139" t="n">
         <v>60.19</v>
       </c>
     </row>
@@ -14005,19 +13586,19 @@
         <v>0</v>
       </c>
       <c r="K140" t="n">
-        <v>0</v>
+        <v>408467</v>
       </c>
       <c r="L140" t="n">
-        <v>408467</v>
+        <v>0</v>
       </c>
       <c r="M140" t="n">
         <v>0</v>
       </c>
       <c r="N140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P140" t="n">
         <v>0</v>
@@ -14047,24 +13628,21 @@
         <v>0</v>
       </c>
       <c r="Y140" t="n">
-        <v>0</v>
+        <v>-0.001776756973831556</v>
       </c>
       <c r="Z140" t="n">
-        <v>-0.001776756973831556</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA140" t="n">
-        <v>0.0101010101010101</v>
+        <v>0</v>
       </c>
       <c r="AB140" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC140" t="n">
-        <v>20</v>
+        <v>20.82675467244893</v>
       </c>
       <c r="AD140" t="n">
-        <v>20.82675467244893</v>
-      </c>
-      <c r="AE140" t="n">
         <v>64.552857143</v>
       </c>
     </row>
@@ -14102,10 +13680,10 @@
         <v>0</v>
       </c>
       <c r="K141" t="n">
-        <v>0</v>
+        <v>418598.3</v>
       </c>
       <c r="L141" t="n">
-        <v>418598.3</v>
+        <v>0</v>
       </c>
       <c r="M141" t="n">
         <v>0</v>
@@ -14114,10 +13692,10 @@
         <v>0</v>
       </c>
       <c r="O141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q141" t="n">
         <v>0</v>
@@ -14144,24 +13722,21 @@
         <v>0</v>
       </c>
       <c r="Y141" t="n">
-        <v>0</v>
+        <v>0.002178137166467781</v>
       </c>
       <c r="Z141" t="n">
-        <v>0.002178137166467781</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA141" t="n">
-        <v>0.0101010101010101</v>
+        <v>9</v>
       </c>
       <c r="AB141" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="AC141" t="n">
-        <v>26</v>
+        <v>20.82675467244893</v>
       </c>
       <c r="AD141" t="n">
-        <v>20.82675467244893</v>
-      </c>
-      <c r="AE141" t="n">
         <v>66.00714285700001</v>
       </c>
     </row>
@@ -14199,10 +13774,10 @@
         <v>0</v>
       </c>
       <c r="K142" t="n">
-        <v>0</v>
+        <v>399165.7</v>
       </c>
       <c r="L142" t="n">
-        <v>399165.7</v>
+        <v>0</v>
       </c>
       <c r="M142" t="n">
         <v>0</v>
@@ -14211,10 +13786,10 @@
         <v>0</v>
       </c>
       <c r="O142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q142" t="n">
         <v>0</v>
@@ -14241,24 +13816,21 @@
         <v>0</v>
       </c>
       <c r="Y142" t="n">
-        <v>0</v>
+        <v>-0.001029795664263842</v>
       </c>
       <c r="Z142" t="n">
-        <v>-0.001029795664263842</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA142" t="n">
-        <v>0.0101010101010101</v>
+        <v>10</v>
       </c>
       <c r="AB142" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="AC142" t="n">
-        <v>23</v>
+        <v>20.82675467244893</v>
       </c>
       <c r="AD142" t="n">
-        <v>20.82675467244893</v>
-      </c>
-      <c r="AE142" t="n">
         <v>65.61</v>
       </c>
     </row>
@@ -14296,10 +13868,10 @@
         <v>0</v>
       </c>
       <c r="K143" t="n">
-        <v>0</v>
+        <v>401411.3</v>
       </c>
       <c r="L143" t="n">
-        <v>401411.3</v>
+        <v>0</v>
       </c>
       <c r="M143" t="n">
         <v>0</v>
@@ -14308,10 +13880,10 @@
         <v>0</v>
       </c>
       <c r="O143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q143" t="n">
         <v>0</v>
@@ -14338,24 +13910,21 @@
         <v>0</v>
       </c>
       <c r="Y143" t="n">
-        <v>0</v>
+        <v>-0.0007323480876772109</v>
       </c>
       <c r="Z143" t="n">
-        <v>-0.0007323480876772109</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA143" t="n">
-        <v>0.0101010101010101</v>
+        <v>14</v>
       </c>
       <c r="AB143" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AC143" t="n">
-        <v>18</v>
+        <v>20.82675467244893</v>
       </c>
       <c r="AD143" t="n">
-        <v>20.82675467244893</v>
-      </c>
-      <c r="AE143" t="n">
         <v>65.61</v>
       </c>
     </row>
@@ -14393,10 +13962,10 @@
         <v>0</v>
       </c>
       <c r="K144" t="n">
-        <v>0</v>
+        <v>450607.5</v>
       </c>
       <c r="L144" t="n">
-        <v>450607.5</v>
+        <v>0</v>
       </c>
       <c r="M144" t="n">
         <v>0</v>
@@ -14405,10 +13974,10 @@
         <v>0</v>
       </c>
       <c r="O144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q144" t="n">
         <v>0</v>
@@ -14435,24 +14004,21 @@
         <v>0</v>
       </c>
       <c r="Y144" t="n">
-        <v>0</v>
+        <v>0.006137471391615688</v>
       </c>
       <c r="Z144" t="n">
-        <v>0.006137471391615688</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA144" t="n">
-        <v>0.0101010101010101</v>
+        <v>54</v>
       </c>
       <c r="AB144" t="n">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="AC144" t="n">
-        <v>22</v>
+        <v>20.82675467244893</v>
       </c>
       <c r="AD144" t="n">
-        <v>20.82675467244893</v>
-      </c>
-      <c r="AE144" t="n">
         <v>69.577142857</v>
       </c>
     </row>
@@ -14490,10 +14056,10 @@
         <v>0</v>
       </c>
       <c r="K145" t="n">
-        <v>0</v>
+        <v>529535.8</v>
       </c>
       <c r="L145" t="n">
-        <v>529535.8</v>
+        <v>0</v>
       </c>
       <c r="M145" t="n">
         <v>0</v>
@@ -14502,10 +14068,10 @@
         <v>0</v>
       </c>
       <c r="O145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q145" t="n">
         <v>0</v>
@@ -14532,24 +14098,21 @@
         <v>0</v>
       </c>
       <c r="Y145" t="n">
-        <v>0</v>
+        <v>0.005941977381314426</v>
       </c>
       <c r="Z145" t="n">
-        <v>0.005941977381314426</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA145" t="n">
-        <v>0.0101010101010101</v>
+        <v>58</v>
       </c>
       <c r="AB145" t="n">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="AC145" t="n">
-        <v>23</v>
+        <v>20.82675467244893</v>
       </c>
       <c r="AD145" t="n">
-        <v>20.82675467244893</v>
-      </c>
-      <c r="AE145" t="n">
         <v>68.52</v>
       </c>
     </row>
@@ -14587,10 +14150,10 @@
         <v>0</v>
       </c>
       <c r="K146" t="n">
-        <v>0</v>
+        <v>391909.6</v>
       </c>
       <c r="L146" t="n">
-        <v>391909.6</v>
+        <v>0</v>
       </c>
       <c r="M146" t="n">
         <v>0</v>
@@ -14602,10 +14165,10 @@
         <v>0</v>
       </c>
       <c r="P146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R146" t="n">
         <v>0</v>
@@ -14629,24 +14192,21 @@
         <v>0</v>
       </c>
       <c r="Y146" t="n">
-        <v>0</v>
+        <v>-0.00039966739306927</v>
       </c>
       <c r="Z146" t="n">
-        <v>-0.00039966739306927</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA146" t="n">
-        <v>0.0101010101010101</v>
+        <v>3</v>
       </c>
       <c r="AB146" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="AC146" t="n">
-        <v>25</v>
+        <v>20.82675467244893</v>
       </c>
       <c r="AD146" t="n">
-        <v>20.82675467244893</v>
-      </c>
-      <c r="AE146" t="n">
         <v>74.471428571</v>
       </c>
     </row>
@@ -14684,10 +14244,10 @@
         <v>0</v>
       </c>
       <c r="K147" t="n">
-        <v>0</v>
+        <v>418311.1</v>
       </c>
       <c r="L147" t="n">
-        <v>418311.1</v>
+        <v>0</v>
       </c>
       <c r="M147" t="n">
         <v>0</v>
@@ -14699,10 +14259,10 @@
         <v>0</v>
       </c>
       <c r="P147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R147" t="n">
         <v>0</v>
@@ -14726,24 +14286,21 @@
         <v>0</v>
       </c>
       <c r="Y147" t="n">
-        <v>0</v>
+        <v>-0.000994432806304177</v>
       </c>
       <c r="Z147" t="n">
-        <v>-0.000994432806304177</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA147" t="n">
-        <v>0.0101010101010101</v>
+        <v>5</v>
       </c>
       <c r="AB147" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="AC147" t="n">
-        <v>21</v>
+        <v>20.82675467244893</v>
       </c>
       <c r="AD147" t="n">
-        <v>20.82675467244893</v>
-      </c>
-      <c r="AE147" t="n">
         <v>75</v>
       </c>
     </row>
@@ -14778,13 +14335,13 @@
         <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>0</v>
+        <v>3916.77</v>
       </c>
       <c r="K148" t="n">
-        <v>3916.77</v>
+        <v>483413.5</v>
       </c>
       <c r="L148" t="n">
-        <v>483413.5</v>
+        <v>0</v>
       </c>
       <c r="M148" t="n">
         <v>0</v>
@@ -14796,10 +14353,10 @@
         <v>0</v>
       </c>
       <c r="P148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R148" t="n">
         <v>0</v>
@@ -14823,24 +14380,21 @@
         <v>0</v>
       </c>
       <c r="Y148" t="n">
-        <v>0</v>
+        <v>0.00293556569940153</v>
       </c>
       <c r="Z148" t="n">
-        <v>0.00293556569940153</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA148" t="n">
-        <v>0.0101010101010101</v>
+        <v>46</v>
       </c>
       <c r="AB148" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="AC148" t="n">
-        <v>20</v>
+        <v>20.82675467244893</v>
       </c>
       <c r="AD148" t="n">
-        <v>20.82675467244893</v>
-      </c>
-      <c r="AE148" t="n">
         <v>75</v>
       </c>
     </row>
@@ -14875,13 +14429,13 @@
         <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>0</v>
+        <v>1369.859999</v>
       </c>
       <c r="K149" t="n">
-        <v>1369.859999</v>
+        <v>428521.9</v>
       </c>
       <c r="L149" t="n">
-        <v>428521.9</v>
+        <v>0</v>
       </c>
       <c r="M149" t="n">
         <v>0</v>
@@ -14893,10 +14447,10 @@
         <v>0</v>
       </c>
       <c r="P149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R149" t="n">
         <v>0</v>
@@ -14920,24 +14474,21 @@
         <v>0</v>
       </c>
       <c r="Y149" t="n">
-        <v>0</v>
+        <v>0.003769481709610888</v>
       </c>
       <c r="Z149" t="n">
-        <v>0.003769481709610888</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA149" t="n">
-        <v>0.0101010101010101</v>
+        <v>38</v>
       </c>
       <c r="AB149" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="AC149" t="n">
-        <v>21</v>
+        <v>20.82675467244893</v>
       </c>
       <c r="AD149" t="n">
-        <v>20.82675467244893</v>
-      </c>
-      <c r="AE149" t="n">
         <v>75</v>
       </c>
     </row>
@@ -14972,13 +14523,13 @@
         <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>0</v>
+        <v>1215.9</v>
       </c>
       <c r="K150" t="n">
-        <v>1215.9</v>
+        <v>515255.1</v>
       </c>
       <c r="L150" t="n">
-        <v>515255.1</v>
+        <v>0</v>
       </c>
       <c r="M150" t="n">
         <v>0</v>
@@ -14993,10 +14544,10 @@
         <v>0</v>
       </c>
       <c r="Q150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S150" t="n">
         <v>0</v>
@@ -15017,24 +14568,21 @@
         <v>0</v>
       </c>
       <c r="Y150" t="n">
-        <v>0</v>
+        <v>0.00599894169667809</v>
       </c>
       <c r="Z150" t="n">
-        <v>0.00599894169667809</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA150" t="n">
-        <v>0.0101010101010101</v>
+        <v>4</v>
       </c>
       <c r="AB150" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="AC150" t="n">
-        <v>25</v>
+        <v>20.82675467244893</v>
       </c>
       <c r="AD150" t="n">
-        <v>20.82675467244893</v>
-      </c>
-      <c r="AE150" t="n">
         <v>63.89</v>
       </c>
     </row>
@@ -15069,13 +14617,13 @@
         <v>0</v>
       </c>
       <c r="J151" t="n">
-        <v>0</v>
+        <v>1304.36</v>
       </c>
       <c r="K151" t="n">
-        <v>1304.36</v>
+        <v>523547.1</v>
       </c>
       <c r="L151" t="n">
-        <v>523547.1</v>
+        <v>0</v>
       </c>
       <c r="M151" t="n">
         <v>0</v>
@@ -15090,10 +14638,10 @@
         <v>0</v>
       </c>
       <c r="Q151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S151" t="n">
         <v>0</v>
@@ -15114,24 +14662,21 @@
         <v>0</v>
       </c>
       <c r="Y151" t="n">
-        <v>0</v>
+        <v>0.004807201288955304</v>
       </c>
       <c r="Z151" t="n">
-        <v>0.004807201288955304</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA151" t="n">
-        <v>0.0101010101010101</v>
+        <v>14</v>
       </c>
       <c r="AB151" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="AC151" t="n">
-        <v>27</v>
+        <v>20.82675467244893</v>
       </c>
       <c r="AD151" t="n">
-        <v>20.82675467244893</v>
-      </c>
-      <c r="AE151" t="n">
         <v>63.89</v>
       </c>
     </row>
@@ -15166,13 +14711,13 @@
         <v>0</v>
       </c>
       <c r="J152" t="n">
-        <v>0</v>
+        <v>1663.26</v>
       </c>
       <c r="K152" t="n">
-        <v>1663.26</v>
+        <v>497309.6</v>
       </c>
       <c r="L152" t="n">
-        <v>497309.6</v>
+        <v>0</v>
       </c>
       <c r="M152" t="n">
         <v>0</v>
@@ -15187,10 +14732,10 @@
         <v>0</v>
       </c>
       <c r="Q152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S152" t="n">
         <v>0</v>
@@ -15211,24 +14756,21 @@
         <v>0</v>
       </c>
       <c r="Y152" t="n">
-        <v>0</v>
+        <v>0.005146356503197043</v>
       </c>
       <c r="Z152" t="n">
-        <v>0.005146356503197043</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA152" t="n">
-        <v>0.0101010101010101</v>
+        <v>16</v>
       </c>
       <c r="AB152" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AC152" t="n">
-        <v>22</v>
+        <v>20.82675467244893</v>
       </c>
       <c r="AD152" t="n">
-        <v>20.82675467244893</v>
-      </c>
-      <c r="AE152" t="n">
         <v>57.275714286</v>
       </c>
     </row>
@@ -15263,13 +14805,13 @@
         <v>0</v>
       </c>
       <c r="J153" t="n">
-        <v>0</v>
+        <v>1116.35</v>
       </c>
       <c r="K153" t="n">
-        <v>1116.35</v>
+        <v>761017.1</v>
       </c>
       <c r="L153" t="n">
-        <v>761017.1</v>
+        <v>0</v>
       </c>
       <c r="M153" t="n">
         <v>0</v>
@@ -15284,10 +14826,10 @@
         <v>0</v>
       </c>
       <c r="Q153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S153" t="n">
         <v>0</v>
@@ -15308,24 +14850,21 @@
         <v>0</v>
       </c>
       <c r="Y153" t="n">
-        <v>0</v>
+        <v>0.04111699799204318</v>
       </c>
       <c r="Z153" t="n">
-        <v>0.04111699799204318</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA153" t="n">
-        <v>0.0101010101010101</v>
+        <v>29</v>
       </c>
       <c r="AB153" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AC153" t="n">
-        <v>21</v>
+        <v>20.82675467244893</v>
       </c>
       <c r="AD153" t="n">
-        <v>20.82675467244893</v>
-      </c>
-      <c r="AE153" t="n">
         <v>54.63</v>
       </c>
     </row>
@@ -15348,25 +14887,25 @@
         <v>40200</v>
       </c>
       <c r="F154" t="n">
-        <v>8752.635399000001</v>
+        <v>18960.2</v>
       </c>
       <c r="G154" t="n">
-        <v>18960.2</v>
+        <v>0</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>11746.637592</v>
       </c>
       <c r="J154" t="n">
-        <v>2994.002193</v>
+        <v>13668.61002</v>
       </c>
       <c r="K154" t="n">
-        <v>13668.610015</v>
+        <v>618697.7</v>
       </c>
       <c r="L154" t="n">
-        <v>618697.7</v>
+        <v>0</v>
       </c>
       <c r="M154" t="n">
         <v>0</v>
@@ -15384,10 +14923,10 @@
         <v>0</v>
       </c>
       <c r="R154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T154" t="n">
         <v>0</v>
@@ -15405,24 +14944,21 @@
         <v>0</v>
       </c>
       <c r="Y154" t="n">
-        <v>0</v>
+        <v>0.03006537557191363</v>
       </c>
       <c r="Z154" t="n">
-        <v>0.03006537557191363</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA154" t="n">
-        <v>0.0101010101010101</v>
+        <v>35</v>
       </c>
       <c r="AB154" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="AC154" t="n">
-        <v>24</v>
+        <v>20.82675467244893</v>
       </c>
       <c r="AD154" t="n">
-        <v>20.82675467244893</v>
-      </c>
-      <c r="AE154" t="n">
         <v>54.63</v>
       </c>
     </row>
@@ -15445,25 +14981,25 @@
         <v>10000</v>
       </c>
       <c r="F155" t="n">
-        <v>25664.904939</v>
+        <v>22120.23333</v>
       </c>
       <c r="G155" t="n">
-        <v>22120.233333333</v>
+        <v>48684</v>
       </c>
       <c r="H155" t="n">
-        <v>48684</v>
+        <v>56840</v>
       </c>
       <c r="I155" t="n">
-        <v>56840</v>
+        <v>38328.96454</v>
       </c>
       <c r="J155" t="n">
-        <v>12664.059604</v>
+        <v>32835.20001</v>
       </c>
       <c r="K155" t="n">
-        <v>32835.200006</v>
+        <v>505298</v>
       </c>
       <c r="L155" t="n">
-        <v>505298</v>
+        <v>0</v>
       </c>
       <c r="M155" t="n">
         <v>0</v>
@@ -15481,10 +15017,10 @@
         <v>0</v>
       </c>
       <c r="R155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T155" t="n">
         <v>0</v>
@@ -15502,24 +15038,21 @@
         <v>0</v>
       </c>
       <c r="Y155" t="n">
-        <v>0</v>
+        <v>0.004756968971478957</v>
       </c>
       <c r="Z155" t="n">
-        <v>0.004756968971478957</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA155" t="n">
-        <v>0.0101010101010101</v>
+        <v>25</v>
       </c>
       <c r="AB155" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC155" t="n">
-        <v>26</v>
+        <v>20.82675467244893</v>
       </c>
       <c r="AD155" t="n">
-        <v>20.82675467244893</v>
-      </c>
-      <c r="AE155" t="n">
         <v>54.63</v>
       </c>
     </row>
@@ -15542,25 +15075,25 @@
         <v>42000</v>
       </c>
       <c r="F156" t="n">
-        <v>25682.322783</v>
+        <v>22120.23333</v>
       </c>
       <c r="G156" t="n">
-        <v>22120.233333333</v>
+        <v>56264</v>
       </c>
       <c r="H156" t="n">
-        <v>56264</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>29379.06507</v>
       </c>
       <c r="J156" t="n">
-        <v>3696.74229</v>
+        <v>33023.13</v>
       </c>
       <c r="K156" t="n">
-        <v>33023.130001</v>
+        <v>548099.6</v>
       </c>
       <c r="L156" t="n">
-        <v>548099.6</v>
+        <v>0</v>
       </c>
       <c r="M156" t="n">
         <v>0</v>
@@ -15578,10 +15111,10 @@
         <v>0</v>
       </c>
       <c r="R156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T156" t="n">
         <v>0</v>
@@ -15599,24 +15132,21 @@
         <v>0</v>
       </c>
       <c r="Y156" t="n">
-        <v>0</v>
+        <v>0.006471816106636408</v>
       </c>
       <c r="Z156" t="n">
-        <v>0.006471816106636408</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA156" t="n">
-        <v>0.0101010101010101</v>
+        <v>51</v>
       </c>
       <c r="AB156" t="n">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="AC156" t="n">
-        <v>20</v>
+        <v>20.82675467244893</v>
       </c>
       <c r="AD156" t="n">
-        <v>20.82675467244893</v>
-      </c>
-      <c r="AE156" t="n">
         <v>53.571428571</v>
       </c>
     </row>
@@ -15639,25 +15169,25 @@
         <v>21000</v>
       </c>
       <c r="F157" t="n">
-        <v>45665.3359</v>
+        <v>22120.23333</v>
       </c>
       <c r="G157" t="n">
-        <v>22120.233333333</v>
+        <v>71007</v>
       </c>
       <c r="H157" t="n">
-        <v>71007</v>
+        <v>528629</v>
       </c>
       <c r="I157" t="n">
-        <v>528629</v>
+        <v>51795.569116</v>
       </c>
       <c r="J157" t="n">
-        <v>6130.233216</v>
+        <v>55056.27001</v>
       </c>
       <c r="K157" t="n">
-        <v>55056.270013</v>
+        <v>480520.6</v>
       </c>
       <c r="L157" t="n">
-        <v>480520.6</v>
+        <v>0</v>
       </c>
       <c r="M157" t="n">
         <v>0</v>
@@ -15675,10 +15205,10 @@
         <v>0</v>
       </c>
       <c r="R157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T157" t="n">
         <v>0</v>
@@ -15696,24 +15226,21 @@
         <v>0</v>
       </c>
       <c r="Y157" t="n">
-        <v>0</v>
+        <v>0.003759315811925113</v>
       </c>
       <c r="Z157" t="n">
-        <v>0.003759315811925113</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA157" t="n">
-        <v>0.0101010101010101</v>
+        <v>57</v>
       </c>
       <c r="AB157" t="n">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="AC157" t="n">
-        <v>21</v>
+        <v>20.82675467244893</v>
       </c>
       <c r="AD157" t="n">
-        <v>20.82675467244893</v>
-      </c>
-      <c r="AE157" t="n">
         <v>47.22</v>
       </c>
     </row>
@@ -15736,25 +15263,25 @@
         <v>56741.5</v>
       </c>
       <c r="F158" t="n">
-        <v>46396.10017776</v>
+        <v>9480.1</v>
       </c>
       <c r="G158" t="n">
-        <v>9480.1</v>
+        <v>34097</v>
       </c>
       <c r="H158" t="n">
-        <v>34097</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
+        <v>52578.668083</v>
       </c>
       <c r="J158" t="n">
-        <v>6182.567903</v>
+        <v>30276.36001</v>
       </c>
       <c r="K158" t="n">
-        <v>30276.36001</v>
+        <v>476321.7</v>
       </c>
       <c r="L158" t="n">
-        <v>476321.7</v>
+        <v>0</v>
       </c>
       <c r="M158" t="n">
         <v>0</v>
@@ -15772,10 +15299,10 @@
         <v>0</v>
       </c>
       <c r="R158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T158" t="n">
         <v>0</v>
@@ -15793,24 +15320,21 @@
         <v>0</v>
       </c>
       <c r="Y158" t="n">
-        <v>0</v>
+        <v>0.001598669572276741</v>
       </c>
       <c r="Z158" t="n">
-        <v>0.001598669572276741</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="AA158" t="n">
-        <v>0.0101010101010101</v>
+        <v>13</v>
       </c>
       <c r="AB158" t="n">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="AC158" t="n">
-        <v>31</v>
+        <v>20.82675467244893</v>
       </c>
       <c r="AD158" t="n">
-        <v>20.82675467244893</v>
-      </c>
-      <c r="AE158" t="n">
         <v>46.227142857</v>
       </c>
     </row>
